--- a/barclays-autosys/Sample_Log.xlsx
+++ b/barclays-autosys/Sample_Log.xlsx
@@ -4,24 +4,89 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23297" windowHeight="9822"/>
+    <workbookView windowWidth="23297" windowHeight="9822" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Nightly_Download" sheetId="1" r:id="rId1"/>
+    <sheet name="Watch_4_File" sheetId="2" r:id="rId2"/>
+    <sheet name="filter_data" sheetId="3" r:id="rId3"/>
+    <sheet name="parse_data" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+  <si>
+    <t>Job_Name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Run/Ntry</t>
+  </si>
+  <si>
+    <t>Pri/Xit</t>
+  </si>
+  <si>
+    <t>Nightly_Download</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Watch_4_File</t>
+  </si>
+  <si>
+    <t>filter_data</t>
+  </si>
+  <si>
+    <t>parse_data</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,7 +97,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="-apple-system"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -40,7 +135,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -53,10 +171,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -75,33 +194,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,15 +209,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -131,7 +225,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,15 +246,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -160,13 +253,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -183,25 +270,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,25 +294,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,7 +342,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,109 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,17 +464,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -409,32 +531,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -442,26 +538,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,153 +566,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -943,15 +1054,2633 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.4327485380117" defaultRowHeight="12.85" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="15.327485380117" customWidth="1"/>
+    <col min="2" max="2" width="10.3040935672515" customWidth="1"/>
+    <col min="3" max="4" width="6.6140350877193" customWidth="1"/>
+    <col min="5" max="5" width="6.71345029239766" customWidth="1"/>
+    <col min="6" max="6" width="8.82456140350877" customWidth="1"/>
+    <col min="7" max="7" width="6.42105263157895" customWidth="1"/>
+    <col min="8" max="16384" width="15.4327485380117" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="6" customFormat="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="15.4" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C2" s="4">
+        <v>39212.2507291667</v>
+      </c>
+      <c r="D2" s="4">
+        <f>C2+TIME(0,2,15)</f>
+        <v>39212.2522916667</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="15.4" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C3" s="4">
+        <f>C2+TIME(1,0,0)</f>
+        <v>39212.2923958333</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D30" si="0">C3+TIME(0,2,15)</f>
+        <v>39212.2939583333</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="15.4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:C19" si="1">C3+TIME(1,0,0)</f>
+        <v>39212.3340625</v>
+      </c>
+      <c r="D4" s="4">
+        <f>C4+TIME(0,4,15)</f>
+        <v>39212.3370138889</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="15.4" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="1"/>
+        <v>39212.3757291667</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5+TIME(0,4,15)</f>
+        <v>39212.3786805556</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="15.4" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="1"/>
+        <v>39212.4173958333</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.4189583333</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="15.4" spans="1:5">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="1"/>
+        <v>39212.4590625</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.460625</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="15.4" spans="1:5">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="1"/>
+        <v>39212.5007291667</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.5022916667</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="15.4" spans="1:5">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="1"/>
+        <v>39212.5423958333</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.5439583333</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="15.4" spans="1:5">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="1"/>
+        <v>39212.5840625</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.585625</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="15.4" spans="1:5">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="1"/>
+        <v>39212.6257291666</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.6272916666</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" ht="15.4" spans="1:5">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="1"/>
+        <v>39212.6673958333</v>
+      </c>
+      <c r="D12" s="4">
+        <f>C12+TIME(0,2,35)</f>
+        <v>39212.6691898148</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="15.4" spans="1:5">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="1"/>
+        <v>39212.7090625</v>
+      </c>
+      <c r="D13" s="4">
+        <f>C13+TIME(0,3,15)</f>
+        <v>39212.7113194444</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="15.4" spans="1:5">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="1"/>
+        <v>39212.7507291666</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.7522916666</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="15.4" spans="1:5">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="1"/>
+        <v>39212.7923958333</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.7939583333</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="15.4" spans="1:5">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="1"/>
+        <v>39212.8340625</v>
+      </c>
+      <c r="D16" s="4">
+        <f>C16+TIME(0,2,45)</f>
+        <v>39212.8359722222</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" ht="15.4" spans="1:5">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="1"/>
+        <v>39212.8757291666</v>
+      </c>
+      <c r="D17" s="4">
+        <f>C17+TIME(0,4,15)</f>
+        <v>39212.8786805555</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" ht="15.4" spans="1:5">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="1"/>
+        <v>39212.9173958333</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.9189583333</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="15.4" spans="1:5">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="1"/>
+        <v>39212.9590625</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.960625</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" ht="15.4" spans="1:5">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C20" s="4">
+        <f>C19+TIME(1,0,0)</f>
+        <v>39213.0007291666</v>
+      </c>
+      <c r="D20" s="4">
+        <f>C20+TIME(0,2,45)</f>
+        <v>39213.0026388889</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" ht="15.4" spans="1:5">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="8">
+        <v>42716</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" ref="C21:C30" si="2">C20+TIME(1,0,0)</f>
+        <v>39213.0423958333</v>
+      </c>
+      <c r="D21" s="4">
+        <f>C21+TIME(0,3,45)</f>
+        <v>39213.045</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="15.4" spans="1:5">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="8">
+        <v>42716</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="2"/>
+        <v>39213.0840625</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.085625</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="15.4" spans="1:5">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="8">
+        <v>42716</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="2"/>
+        <v>39213.1257291666</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.1272916666</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" ht="15.4" spans="1:5">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="8">
+        <v>42716</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="2"/>
+        <v>39213.1673958333</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.1689583333</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" ht="15.4" spans="1:5">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="8">
+        <v>42716</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="2"/>
+        <v>39213.2090624999</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.2106249999</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" ht="15.4" spans="1:5">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="8">
+        <v>42716</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="2"/>
+        <v>39213.2507291666</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.2522916666</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" ht="15.4" spans="1:5">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="8">
+        <v>42716</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="2"/>
+        <v>39213.2923958333</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.2939583333</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" ht="15.4" spans="1:5">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="8">
+        <v>42716</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="2"/>
+        <v>39213.3340624999</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.3356249999</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" ht="15.4" spans="1:5">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="8">
+        <v>42716</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="2"/>
+        <v>39213.3757291666</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.3772916666</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" ht="15.4" spans="1:5">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="8">
+        <v>42716</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="2"/>
+        <v>39213.4173958333</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.4189583333</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.80116959064327" defaultRowHeight="12.85" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="11.3157894736842" customWidth="1"/>
+    <col min="2" max="2" width="10.3040935672515" style="1" customWidth="1"/>
+    <col min="3" max="4" width="6.6140350877193" customWidth="1"/>
+    <col min="5" max="5" width="6.70760233918129" customWidth="1"/>
+    <col min="6" max="6" width="8.82456140350877" customWidth="1"/>
+    <col min="7" max="7" width="6.42105263157895" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="15.4" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3">
+        <f>Nightly_Download!B2</f>
+        <v>42715</v>
+      </c>
+      <c r="C2" s="4">
+        <f>Nightly_Download!C2+TIME(0,0,10)</f>
+        <v>39212.2508449074</v>
+      </c>
+      <c r="D2" s="4">
+        <f>C2+TIME(0,0,10)</f>
+        <v>39212.2509606481</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(Nightly_Download!E2="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="15.4" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3">
+        <f>Nightly_Download!B3</f>
+        <v>42715</v>
+      </c>
+      <c r="C3" s="4">
+        <f>Nightly_Download!C3+TIME(0,0,10)</f>
+        <v>39212.2925115741</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D30" si="0">C3+TIME(0,0,10)</f>
+        <v>39212.2926273148</v>
+      </c>
+      <c r="E3" t="str">
+        <f>IF(Nightly_Download!E3="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="4" ht="15.4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <f>Nightly_Download!B4</f>
+        <v>42715</v>
+      </c>
+      <c r="C4" s="4">
+        <f>Nightly_Download!C4+TIME(0,0,10)</f>
+        <v>39212.3341782407</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.3342939815</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(Nightly_Download!E4="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="5" ht="15.4" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3">
+        <f>Nightly_Download!B5</f>
+        <v>42715</v>
+      </c>
+      <c r="C5" s="4">
+        <f>Nightly_Download!C5+TIME(0,0,10)</f>
+        <v>39212.3758449074</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5+TIME(0,0,30)</f>
+        <v>39212.3761921296</v>
+      </c>
+      <c r="E5" t="str">
+        <f>IF(Nightly_Download!E5="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="6" ht="15.4" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <f>Nightly_Download!B6</f>
+        <v>42715</v>
+      </c>
+      <c r="C6" s="4">
+        <f>Nightly_Download!C6+TIME(0,0,10)</f>
+        <v>39212.4175115741</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.4176273148</v>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(Nightly_Download!E6="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="7" ht="15.4" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <f>Nightly_Download!B7</f>
+        <v>42715</v>
+      </c>
+      <c r="C7" s="4">
+        <f>Nightly_Download!C7+TIME(0,0,10)</f>
+        <v>39212.4591782407</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.4592939815</v>
+      </c>
+      <c r="E7" t="str">
+        <f>IF(Nightly_Download!E7="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="8" ht="15.4" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <f>Nightly_Download!B8</f>
+        <v>42715</v>
+      </c>
+      <c r="C8" s="4">
+        <f>Nightly_Download!C8+TIME(0,0,10)</f>
+        <v>39212.5008449074</v>
+      </c>
+      <c r="D8" s="4">
+        <f>C8+TIME(0,0,25)</f>
+        <v>39212.5011342592</v>
+      </c>
+      <c r="E8" t="str">
+        <f>IF(Nightly_Download!E8="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="9" ht="15.4" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <f>Nightly_Download!B9</f>
+        <v>42715</v>
+      </c>
+      <c r="C9" s="4">
+        <f>Nightly_Download!C9+TIME(0,0,10)</f>
+        <v>39212.5425115741</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.5426273148</v>
+      </c>
+      <c r="E9" t="str">
+        <f>IF(Nightly_Download!E9="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="10" ht="15.4" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <f>Nightly_Download!B10</f>
+        <v>42715</v>
+      </c>
+      <c r="C10" s="4">
+        <f>Nightly_Download!C10+TIME(0,0,10)</f>
+        <v>39212.5841782407</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.5842939815</v>
+      </c>
+      <c r="E10" t="str">
+        <f>IF(Nightly_Download!E10="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="11" ht="15.4" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <f>Nightly_Download!B11</f>
+        <v>42715</v>
+      </c>
+      <c r="C11" s="4">
+        <f>Nightly_Download!C11+TIME(0,0,10)</f>
+        <v>39212.6258449074</v>
+      </c>
+      <c r="D11" s="4">
+        <f>C11+TIME(0,0,50)</f>
+        <v>39212.6264236111</v>
+      </c>
+      <c r="E11" t="str">
+        <f>IF(Nightly_Download!E11="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="12" ht="15.4" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <f>Nightly_Download!B12</f>
+        <v>42715</v>
+      </c>
+      <c r="C12" s="4">
+        <f>Nightly_Download!C12+TIME(0,0,10)</f>
+        <v>39212.6675115741</v>
+      </c>
+      <c r="D12" s="4">
+        <f>C12+TIME(0,0,20)</f>
+        <v>39212.6677430555</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="15.4" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <f>Nightly_Download!B13</f>
+        <v>42715</v>
+      </c>
+      <c r="C13" s="4">
+        <f>Nightly_Download!C13+TIME(0,0,10)</f>
+        <v>39212.7091782407</v>
+      </c>
+      <c r="D13" s="4">
+        <f>C13+TIME(0,0,25)</f>
+        <v>39212.7094675926</v>
+      </c>
+      <c r="E13" t="str">
+        <f>IF(Nightly_Download!E13="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="14" ht="15.4" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <f>Nightly_Download!B14</f>
+        <v>42715</v>
+      </c>
+      <c r="C14" s="4">
+        <f>Nightly_Download!C14+TIME(0,0,10)</f>
+        <v>39212.7508449074</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.7509606481</v>
+      </c>
+      <c r="E14" t="str">
+        <f>IF(Nightly_Download!E14="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="15" ht="15.4" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <f>Nightly_Download!B15</f>
+        <v>42715</v>
+      </c>
+      <c r="C15" s="4">
+        <f>Nightly_Download!C15+TIME(0,0,10)</f>
+        <v>39212.792511574</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.7926273148</v>
+      </c>
+      <c r="E15" t="str">
+        <f>IF(Nightly_Download!E15="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="16" ht="15.4" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <f>Nightly_Download!B16</f>
+        <v>42715</v>
+      </c>
+      <c r="C16" s="4">
+        <f>Nightly_Download!C16+TIME(0,0,10)</f>
+        <v>39212.8341782407</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.8342939814</v>
+      </c>
+      <c r="E16" t="str">
+        <f>IF(Nightly_Download!E16="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="17" ht="15.4" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <f>Nightly_Download!B17</f>
+        <v>42715</v>
+      </c>
+      <c r="C17" s="4">
+        <f>Nightly_Download!C17+TIME(0,0,10)</f>
+        <v>39212.8758449074</v>
+      </c>
+      <c r="D17" s="4">
+        <f>C17+TIME(0,0,25)</f>
+        <v>39212.8761342592</v>
+      </c>
+      <c r="E17" t="str">
+        <f>IF(Nightly_Download!E17="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="18" ht="15.4" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3">
+        <f>Nightly_Download!B18</f>
+        <v>42715</v>
+      </c>
+      <c r="C18" s="4">
+        <f>Nightly_Download!C18+TIME(0,0,10)</f>
+        <v>39212.917511574</v>
+      </c>
+      <c r="D18" s="4">
+        <f>C18+TIME(0,0,10)</f>
+        <v>39212.9176273148</v>
+      </c>
+      <c r="E18" t="str">
+        <f>IF(Nightly_Download!E18="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="19" ht="15.4" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <f>Nightly_Download!B19</f>
+        <v>42715</v>
+      </c>
+      <c r="C19" s="4">
+        <f>Nightly_Download!C19+TIME(0,0,10)</f>
+        <v>39212.9591782407</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.9592939814</v>
+      </c>
+      <c r="E19" t="str">
+        <f>IF(Nightly_Download!E19="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="20" ht="15.4" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3">
+        <f>Nightly_Download!B20</f>
+        <v>42715</v>
+      </c>
+      <c r="C20" s="4">
+        <f>Nightly_Download!C20+TIME(0,0,10)</f>
+        <v>39213.0008449074</v>
+      </c>
+      <c r="D20" s="4">
+        <f>C20+TIME(0,0,40)</f>
+        <v>39213.0013078703</v>
+      </c>
+      <c r="E20" t="str">
+        <f>IF(Nightly_Download!E20="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="21" ht="15.4" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3">
+        <f>Nightly_Download!B21</f>
+        <v>42716</v>
+      </c>
+      <c r="C21" s="4">
+        <f>Nightly_Download!C21+TIME(0,0,10)</f>
+        <v>39213.042511574</v>
+      </c>
+      <c r="D21" s="4">
+        <f>C21+TIME(0,0,25)</f>
+        <v>39213.0428009259</v>
+      </c>
+      <c r="E21" t="str">
+        <f>IF(Nightly_Download!E21="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="22" ht="15.4" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3">
+        <f>Nightly_Download!B22</f>
+        <v>42716</v>
+      </c>
+      <c r="C22" s="4">
+        <f>Nightly_Download!C22+TIME(0,0,10)</f>
+        <v>39213.0841782407</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.0842939814</v>
+      </c>
+      <c r="E22" t="str">
+        <f>IF(Nightly_Download!E22="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="23" ht="15.4" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3">
+        <f>Nightly_Download!B23</f>
+        <v>42716</v>
+      </c>
+      <c r="C23" s="4">
+        <f>Nightly_Download!C23+TIME(0,0,10)</f>
+        <v>39213.1258449074</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.1259606481</v>
+      </c>
+      <c r="E23" t="str">
+        <f>IF(Nightly_Download!E23="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="24" ht="15.4" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3">
+        <f>Nightly_Download!B24</f>
+        <v>42716</v>
+      </c>
+      <c r="C24" s="4">
+        <f>Nightly_Download!C24+TIME(0,0,10)</f>
+        <v>39213.167511574</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.1676273148</v>
+      </c>
+      <c r="E24" t="str">
+        <f>IF(Nightly_Download!E24="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="25" ht="15.4" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3">
+        <f>Nightly_Download!B25</f>
+        <v>42716</v>
+      </c>
+      <c r="C25" s="4">
+        <f>Nightly_Download!C25+TIME(0,0,10)</f>
+        <v>39213.2091782407</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.2092939814</v>
+      </c>
+      <c r="E25" t="str">
+        <f>IF(Nightly_Download!E25="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="26" ht="15.4" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="3">
+        <f>Nightly_Download!B26</f>
+        <v>42716</v>
+      </c>
+      <c r="C26" s="4">
+        <f>Nightly_Download!C26+TIME(0,0,10)</f>
+        <v>39213.2508449074</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.2509606481</v>
+      </c>
+      <c r="E26" t="str">
+        <f>IF(Nightly_Download!E26="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="27" ht="15.4" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3">
+        <f>Nightly_Download!B27</f>
+        <v>42716</v>
+      </c>
+      <c r="C27" s="4">
+        <f>Nightly_Download!C27+TIME(0,0,10)</f>
+        <v>39213.292511574</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.2926273148</v>
+      </c>
+      <c r="E27" t="str">
+        <f>IF(Nightly_Download!E27="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="28" ht="15.4" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="3">
+        <f>Nightly_Download!B28</f>
+        <v>42716</v>
+      </c>
+      <c r="C28" s="4">
+        <f>Nightly_Download!C28+TIME(0,0,10)</f>
+        <v>39213.3341782407</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.3342939814</v>
+      </c>
+      <c r="E28" t="str">
+        <f>IF(Nightly_Download!E28="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="29" ht="15.4" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3">
+        <f>Nightly_Download!B29</f>
+        <v>42716</v>
+      </c>
+      <c r="C29" s="4">
+        <f>Nightly_Download!C29+TIME(0,0,10)</f>
+        <v>39213.3758449073</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.3759606481</v>
+      </c>
+      <c r="E29" t="str">
+        <f>IF(Nightly_Download!E29="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="30" ht="15.4" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="3">
+        <f>Nightly_Download!B30</f>
+        <v>42716</v>
+      </c>
+      <c r="C30" s="4">
+        <f>Nightly_Download!C30+TIME(0,0,10)</f>
+        <v>39213.417511574</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.4176273147</v>
+      </c>
+      <c r="E30" t="str">
+        <f>IF(Nightly_Download!E30="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.80116959064327" defaultRowHeight="12.85"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.80116959064327" defaultRowHeight="12.85" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="9.6140350877193" customWidth="1"/>
+    <col min="2" max="2" width="10.3040935672515" style="1" customWidth="1"/>
+    <col min="3" max="4" width="6.6140350877193" customWidth="1"/>
+    <col min="5" max="5" width="6.71345029239766" customWidth="1"/>
+    <col min="6" max="6" width="8.82456140350877" customWidth="1"/>
+    <col min="7" max="7" width="6.42105263157895" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="15.4" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
+        <f>Watch_4_File!B2</f>
+        <v>42715</v>
+      </c>
+      <c r="C2" s="4">
+        <f>Watch_4_File!D2+TIME(0,0,15)</f>
+        <v>39212.2511342593</v>
+      </c>
+      <c r="D2" s="4">
+        <f>C2+TIME(0,0,30)</f>
+        <v>39212.2514814815</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>IF(Watch_4_File!E2="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="15.4" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3">
+        <f>Watch_4_File!B3</f>
+        <v>42715</v>
+      </c>
+      <c r="C3" s="4">
+        <f>Watch_4_File!D3+TIME(0,0,15)</f>
+        <v>39212.2928009259</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D30" si="0">C3+TIME(0,0,30)</f>
+        <v>39212.2931481481</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>IF(Watch_4_File!E3="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="4" ht="15.4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <f>Watch_4_File!B4</f>
+        <v>42715</v>
+      </c>
+      <c r="C4" s="4">
+        <f>Watch_4_File!D4+TIME(0,0,15)</f>
+        <v>39212.3344675926</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.3348148148</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>IF(Watch_4_File!E4="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="5" ht="15.4" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
+        <f>Watch_4_File!B5</f>
+        <v>42715</v>
+      </c>
+      <c r="C5" s="4">
+        <f>Watch_4_File!D5+TIME(0,0,15)</f>
+        <v>39212.3763657407</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.376712963</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>IF(Watch_4_File!E5="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="6" ht="15.4" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <f>Watch_4_File!B6</f>
+        <v>42715</v>
+      </c>
+      <c r="C6" s="4">
+        <f>Watch_4_File!D6+TIME(0,0,15)</f>
+        <v>39212.4178009259</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.4181481481</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>IF(Watch_4_File!E6="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="7" ht="15.4" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <f>Watch_4_File!B7</f>
+        <v>42715</v>
+      </c>
+      <c r="C7" s="4">
+        <f>Watch_4_File!D7+TIME(0,0,15)</f>
+        <v>39212.4594675926</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.4598148148</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>IF(Watch_4_File!E7="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="8" ht="15.4" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <f>Watch_4_File!B8</f>
+        <v>42715</v>
+      </c>
+      <c r="C8" s="4">
+        <f>Watch_4_File!D8+TIME(0,0,15)</f>
+        <v>39212.5013078704</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.5016550926</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f>IF(Watch_4_File!E8="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="9" ht="15.4" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <f>Watch_4_File!B9</f>
+        <v>42715</v>
+      </c>
+      <c r="C9" s="4">
+        <f>Watch_4_File!D9+TIME(0,0,15)</f>
+        <v>39212.5428009259</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.5431481481</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>IF(Watch_4_File!E9="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="10" ht="15.4" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <f>Watch_4_File!B10</f>
+        <v>42715</v>
+      </c>
+      <c r="C10" s="4">
+        <f>Watch_4_File!D10+TIME(0,0,15)</f>
+        <v>39212.5844675926</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.5848148148</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>IF(Watch_4_File!E10="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="11" ht="15.4" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <f>Watch_4_File!B11</f>
+        <v>42715</v>
+      </c>
+      <c r="C11" s="4">
+        <f>Watch_4_File!D11+TIME(0,0,15)</f>
+        <v>39212.6265972222</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.6269444444</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>IF(Watch_4_File!E11="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="12" ht="15.4" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <f>Watch_4_File!B12</f>
+        <v>42715</v>
+      </c>
+      <c r="C12" s="4">
+        <f>Watch_4_File!D12+TIME(0,0,15)</f>
+        <v>39212.6679166666</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.6682638889</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>IF(Watch_4_File!E12="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="13" ht="15.4" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <f>Watch_4_File!B13</f>
+        <v>42715</v>
+      </c>
+      <c r="C13" s="4">
+        <f>Watch_4_File!D13+TIME(0,0,15)</f>
+        <v>39212.7096412037</v>
+      </c>
+      <c r="D13" s="4">
+        <f>C13+TIME(0,0,50)</f>
+        <v>39212.7102199074</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>IF(Watch_4_File!E13="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="14" ht="15.4" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <f>Watch_4_File!B14</f>
+        <v>42715</v>
+      </c>
+      <c r="C14" s="4">
+        <f>Watch_4_File!D14+TIME(0,0,15)</f>
+        <v>39212.7511342592</v>
+      </c>
+      <c r="D14" s="4">
+        <f>C14+TIME(0,0,40)</f>
+        <v>39212.7515972222</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>IF(Watch_4_File!E14="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="15" ht="15.4" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <f>Watch_4_File!B15</f>
+        <v>42715</v>
+      </c>
+      <c r="C15" s="4">
+        <f>Watch_4_File!D15+TIME(0,0,15)</f>
+        <v>39212.7928009259</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.7931481481</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="15.4" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <f>Watch_4_File!B16</f>
+        <v>42715</v>
+      </c>
+      <c r="C16" s="4">
+        <f>Watch_4_File!D16+TIME(0,0,15)</f>
+        <v>39212.8344675926</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.8348148148</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" ht="15.4" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <f>Watch_4_File!B17</f>
+        <v>42715</v>
+      </c>
+      <c r="C17" s="4">
+        <f>Watch_4_File!D17+TIME(0,0,15)</f>
+        <v>39212.8763078703</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.8766550926</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f>IF(Watch_4_File!E17="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="18" ht="15.4" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3">
+        <f>Watch_4_File!B18</f>
+        <v>42715</v>
+      </c>
+      <c r="C18" s="4">
+        <f>Watch_4_File!D18+TIME(0,0,15)</f>
+        <v>39212.9178009259</v>
+      </c>
+      <c r="D18" s="4">
+        <f>C18+TIME(0,0,30)</f>
+        <v>39212.9181481481</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>IF(Watch_4_File!E18="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="19" ht="15.4" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3">
+        <f>Watch_4_File!B19</f>
+        <v>42715</v>
+      </c>
+      <c r="C19" s="4">
+        <f>Watch_4_File!D19+TIME(0,0,15)</f>
+        <v>39212.9594675925</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.9598148148</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>IF(Watch_4_File!E19="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="20" ht="15.4" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3">
+        <f>Watch_4_File!B20</f>
+        <v>42715</v>
+      </c>
+      <c r="C20" s="4">
+        <f>Watch_4_File!D20+TIME(0,0,15)</f>
+        <v>39213.0014814814</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.0018287037</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f>IF(Watch_4_File!E20="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="21" ht="15.4" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3">
+        <f>Watch_4_File!B21</f>
+        <v>42716</v>
+      </c>
+      <c r="C21" s="4">
+        <f>Watch_4_File!D21+TIME(0,0,15)</f>
+        <v>39213.042974537</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.0433217592</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>IF(Watch_4_File!E21="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="22" ht="15.4" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3">
+        <f>Watch_4_File!B22</f>
+        <v>42716</v>
+      </c>
+      <c r="C22" s="4">
+        <f>Watch_4_File!D22+TIME(0,0,15)</f>
+        <v>39213.0844675925</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.0848148148</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f>IF(Watch_4_File!E22="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="23" ht="15.4" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3">
+        <f>Watch_4_File!B23</f>
+        <v>42716</v>
+      </c>
+      <c r="C23" s="4">
+        <f>Watch_4_File!D23+TIME(0,0,15)</f>
+        <v>39213.1261342592</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.1264814814</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>IF(Watch_4_File!E23="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="24" ht="15.4" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3">
+        <f>Watch_4_File!B24</f>
+        <v>42716</v>
+      </c>
+      <c r="C24" s="4">
+        <f>Watch_4_File!D24+TIME(0,0,15)</f>
+        <v>39213.1678009259</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.1681481481</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>IF(Watch_4_File!E24="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="25" ht="15.4" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3">
+        <f>Watch_4_File!B25</f>
+        <v>42716</v>
+      </c>
+      <c r="C25" s="4">
+        <f>Watch_4_File!D25+TIME(0,0,15)</f>
+        <v>39213.2094675925</v>
+      </c>
+      <c r="D25" s="4">
+        <f>C25+TIME(0,0,50)</f>
+        <v>39213.2100462962</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>IF(Watch_4_File!E25="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="26" ht="15.4" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3">
+        <f>Watch_4_File!B26</f>
+        <v>42716</v>
+      </c>
+      <c r="C26" s="4">
+        <f>Watch_4_File!D26+TIME(0,0,15)</f>
+        <v>39213.2511342592</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.2514814814</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" ht="15.4" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="3">
+        <f>Watch_4_File!B27</f>
+        <v>42716</v>
+      </c>
+      <c r="C27" s="4">
+        <f>Watch_4_File!D27+TIME(0,0,15)</f>
+        <v>39213.2928009259</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.2931481481</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>IF(Watch_4_File!E27="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="28" ht="15.4" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3">
+        <f>Watch_4_File!B28</f>
+        <v>42716</v>
+      </c>
+      <c r="C28" s="4">
+        <f>Watch_4_File!D28+TIME(0,0,15)</f>
+        <v>39213.3344675925</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.3348148147</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>IF(Watch_4_File!E28="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="29" ht="15.4" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="3">
+        <f>Watch_4_File!B29</f>
+        <v>42716</v>
+      </c>
+      <c r="C29" s="4">
+        <f>Watch_4_File!D29+TIME(0,0,15)</f>
+        <v>39213.3761342592</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.3764814814</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>IF(Watch_4_File!E29="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="30" ht="15.4" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3">
+        <f>Watch_4_File!B30</f>
+        <v>42716</v>
+      </c>
+      <c r="C30" s="4">
+        <f>Watch_4_File!D30+TIME(0,0,15)</f>
+        <v>39213.4178009259</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.4181481481</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f>IF(Watch_4_File!E30="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.80116959064327" defaultRowHeight="12.85" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="9.6140350877193" customWidth="1"/>
+    <col min="2" max="2" width="10.3040935672515" style="1" customWidth="1"/>
+    <col min="3" max="4" width="6.6140350877193" customWidth="1"/>
+    <col min="5" max="5" width="6.71345029239766" customWidth="1"/>
+    <col min="6" max="6" width="8.82456140350877" customWidth="1"/>
+    <col min="7" max="7" width="6.42105263157895" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="15.4" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3">
+        <f>Watch_4_File!B2</f>
+        <v>42715</v>
+      </c>
+      <c r="C2" s="4">
+        <f>filter_data!D2+TIME(0,0,15)</f>
+        <v>39212.2516550926</v>
+      </c>
+      <c r="D2" s="4">
+        <f>C2+TIME(0,0,30)</f>
+        <v>39212.2520023148</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>IF(filter_data!E2="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="15.4" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3">
+        <f>Watch_4_File!B3</f>
+        <v>42715</v>
+      </c>
+      <c r="C3" s="4">
+        <f>filter_data!D3+TIME(0,0,15)</f>
+        <v>39212.2933217593</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D30" si="0">C3+TIME(0,0,30)</f>
+        <v>39212.2936689815</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>IF(filter_data!E3="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="4" ht="15.4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <f>Watch_4_File!B4</f>
+        <v>42715</v>
+      </c>
+      <c r="C4" s="4">
+        <f>filter_data!D4+TIME(0,0,15)</f>
+        <v>39212.3349884259</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.3353356481</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>IF(filter_data!E4="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="5" ht="15.4" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <f>Watch_4_File!B5</f>
+        <v>42715</v>
+      </c>
+      <c r="C5" s="4">
+        <f>filter_data!D5+TIME(0,0,15)</f>
+        <v>39212.3768865741</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.3772337963</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>IF(filter_data!E5="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="6" ht="15.4" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3">
+        <f>Watch_4_File!B6</f>
+        <v>42715</v>
+      </c>
+      <c r="C6" s="4">
+        <f>filter_data!D6+TIME(0,0,15)</f>
+        <v>39212.4183217592</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.4186689815</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>IF(filter_data!E6="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="7" ht="15.4" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <f>Watch_4_File!B7</f>
+        <v>42715</v>
+      </c>
+      <c r="C7" s="4">
+        <f>filter_data!D7+TIME(0,0,15)</f>
+        <v>39212.4599884259</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.4603356481</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>IF(filter_data!E7="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="8" ht="15.4" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <f>Watch_4_File!B8</f>
+        <v>42715</v>
+      </c>
+      <c r="C8" s="4">
+        <f>filter_data!D8+TIME(0,0,15)</f>
+        <v>39212.5018287037</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.5021759259</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f>IF(filter_data!E8="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="9" ht="15.4" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <f>Watch_4_File!B9</f>
+        <v>42715</v>
+      </c>
+      <c r="C9" s="4">
+        <f>filter_data!D9+TIME(0,0,15)</f>
+        <v>39212.5433217592</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.5436689815</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>IF(filter_data!E9="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="10" ht="15.4" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3">
+        <f>Watch_4_File!B10</f>
+        <v>42715</v>
+      </c>
+      <c r="C10" s="4">
+        <f>filter_data!D10+TIME(0,0,15)</f>
+        <v>39212.5849884259</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.5853356481</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>IF(filter_data!E10="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="11" ht="15.4" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <f>Watch_4_File!B11</f>
+        <v>42715</v>
+      </c>
+      <c r="C11" s="4">
+        <f>filter_data!D11+TIME(0,0,15)</f>
+        <v>39212.6271180555</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.6274652778</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>IF(filter_data!E11="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="12" ht="15.4" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <f>Watch_4_File!B12</f>
+        <v>42715</v>
+      </c>
+      <c r="C12" s="4">
+        <f>filter_data!D12+TIME(0,0,15)</f>
+        <v>39212.6684375</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.6687847222</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>IF(filter_data!E12="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="13" ht="15.4" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <f>Watch_4_File!B13</f>
+        <v>42715</v>
+      </c>
+      <c r="C13" s="4">
+        <f>filter_data!D13+TIME(0,0,15)</f>
+        <v>39212.7103935185</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.7107407407</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>IF(filter_data!E13="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="14" ht="15.4" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <f>Watch_4_File!B14</f>
+        <v>42715</v>
+      </c>
+      <c r="C14" s="4">
+        <f>filter_data!D14+TIME(0,0,15)</f>
+        <v>39212.7517708333</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.7521180555</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>IF(filter_data!E14="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="15" ht="15.4" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <f>Watch_4_File!B15</f>
+        <v>42715</v>
+      </c>
+      <c r="C15" s="4">
+        <f>filter_data!D15+TIME(0,0,15)</f>
+        <v>39212.7933217592</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.7936689814</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f>IF(filter_data!E15="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="16" ht="15.4" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <f>Watch_4_File!B16</f>
+        <v>42715</v>
+      </c>
+      <c r="C16" s="4">
+        <f>filter_data!D16+TIME(0,0,15)</f>
+        <v>39212.8349884259</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.8353356481</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f>IF(filter_data!E16="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="17" ht="15.4" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <f>Watch_4_File!B17</f>
+        <v>42715</v>
+      </c>
+      <c r="C17" s="4">
+        <f>filter_data!D17+TIME(0,0,15)</f>
+        <v>39212.8768287037</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.8771759259</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f>IF(filter_data!E17="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="18" ht="15.4" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <f>Watch_4_File!B18</f>
+        <v>42715</v>
+      </c>
+      <c r="C18" s="4">
+        <f>filter_data!D18+TIME(0,0,15)</f>
+        <v>39212.9183217592</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.9186689814</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>IF(filter_data!E18="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="19" ht="15.4" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <f>Watch_4_File!B19</f>
+        <v>42715</v>
+      </c>
+      <c r="C19" s="4">
+        <f>filter_data!D19+TIME(0,0,15)</f>
+        <v>39212.9599884259</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.9603356481</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>IF(filter_data!E19="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="20" ht="15.4" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
+        <f>Watch_4_File!B20</f>
+        <v>42715</v>
+      </c>
+      <c r="C20" s="4">
+        <f>filter_data!D20+TIME(0,0,15)</f>
+        <v>39213.0020023148</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.002349537</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f>IF(filter_data!E20="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="21" ht="15.4" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
+        <f>Watch_4_File!B21</f>
+        <v>42716</v>
+      </c>
+      <c r="C21" s="4">
+        <f>filter_data!D21+TIME(0,0,15)</f>
+        <v>39213.0434953703</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.0438425925</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>IF(filter_data!E21="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="22" ht="15.4" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3">
+        <f>Watch_4_File!B22</f>
+        <v>42716</v>
+      </c>
+      <c r="C22" s="4">
+        <f>filter_data!D22+TIME(0,0,15)</f>
+        <v>39213.0849884259</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.0853356481</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f>IF(filter_data!E22="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="23" ht="15.4" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3">
+        <f>Watch_4_File!B23</f>
+        <v>42716</v>
+      </c>
+      <c r="C23" s="4">
+        <f>filter_data!D23+TIME(0,0,15)</f>
+        <v>39213.1266550925</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.1270023148</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>IF(filter_data!E23="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="24" ht="15.4" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3">
+        <f>Watch_4_File!B24</f>
+        <v>42716</v>
+      </c>
+      <c r="C24" s="4">
+        <f>filter_data!D24+TIME(0,0,15)</f>
+        <v>39213.1683217592</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.1686689814</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>IF(filter_data!E24="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="25" ht="15.4" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3">
+        <f>Watch_4_File!B25</f>
+        <v>42716</v>
+      </c>
+      <c r="C25" s="4">
+        <f>filter_data!D25+TIME(0,0,15)</f>
+        <v>39213.2102199073</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.2105671296</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>IF(filter_data!E25="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="26" ht="15.4" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3">
+        <f>Watch_4_File!B26</f>
+        <v>42716</v>
+      </c>
+      <c r="C26" s="4">
+        <f>filter_data!D26+TIME(0,0,15)</f>
+        <v>39213.2516550925</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.2520023148</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f>IF(filter_data!E26="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="27" ht="15.4" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3">
+        <f>Watch_4_File!B27</f>
+        <v>42716</v>
+      </c>
+      <c r="C27" s="4">
+        <f>filter_data!D27+TIME(0,0,15)</f>
+        <v>39213.2933217592</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.2936689814</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>IF(filter_data!E27="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="28" ht="15.4" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3">
+        <f>Watch_4_File!B28</f>
+        <v>42716</v>
+      </c>
+      <c r="C28" s="4">
+        <f>filter_data!D28+TIME(0,0,15)</f>
+        <v>39213.3349884259</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.3353356481</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>IF(filter_data!E28="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="29" ht="15.4" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3">
+        <f>Watch_4_File!B29</f>
+        <v>42716</v>
+      </c>
+      <c r="C29" s="4">
+        <f>filter_data!D29+TIME(0,0,15)</f>
+        <v>39213.3766550925</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.3770023147</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>IF(filter_data!E29="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="30" ht="15.4" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3">
+        <f>Watch_4_File!B30</f>
+        <v>42716</v>
+      </c>
+      <c r="C30" s="4">
+        <f>filter_data!D30+TIME(0,0,15)</f>
+        <v>39213.4183217592</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.4186689814</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f>IF(filter_data!E30="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/barclays-autosys/Sample_Log.xlsx
+++ b/barclays-autosys/Sample_Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23297" windowHeight="9822" activeTab="2"/>
+    <workbookView windowWidth="23297" windowHeight="9822"/>
   </bookViews>
   <sheets>
     <sheet name="Nightly_Download" sheetId="1" r:id="rId1"/>
@@ -75,18 +75,11 @@
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="177" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,9 +104,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,9 +118,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,22 +133,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -165,7 +141,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,10 +155,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,10 +178,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,24 +209,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,14 +224,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -270,19 +255,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,6 +286,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,19 +315,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +339,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,103 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,21 +449,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -531,24 +520,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,174 +551,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1056,7 +1032,7 @@
   <sheetPr/>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1071,26 +1047,26 @@
     <col min="8" max="16384" width="15.4327485380117" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1098,13 +1074,13 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7">
-        <v>42715</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="2">
+        <v>42715</v>
+      </c>
+      <c r="C2" s="3">
         <v>39212.2507291667</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <f>C2+TIME(0,2,15)</f>
         <v>39212.2522916667</v>
       </c>
@@ -1122,14 +1098,14 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
-        <v>42715</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="2">
+        <v>42715</v>
+      </c>
+      <c r="C3" s="3">
         <f>C2+TIME(1,0,0)</f>
         <v>39212.2923958333</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D30" si="0">C3+TIME(0,2,15)</f>
         <v>39212.2939583333</v>
       </c>
@@ -1141,14 +1117,14 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7">
-        <v>42715</v>
-      </c>
-      <c r="C4" s="4">
-        <f t="shared" ref="C4:C19" si="1">C3+TIME(1,0,0)</f>
+      <c r="B4" s="2">
+        <v>42715</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C20" si="1">C3+TIME(1,0,0)</f>
         <v>39212.3340625</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f>C4+TIME(0,4,15)</f>
         <v>39212.3370138889</v>
       </c>
@@ -1160,14 +1136,14 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
-        <v>42715</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="2">
+        <v>42715</v>
+      </c>
+      <c r="C5" s="3">
         <f t="shared" si="1"/>
         <v>39212.3757291667</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f>C5+TIME(0,4,15)</f>
         <v>39212.3786805556</v>
       </c>
@@ -1179,14 +1155,14 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
-        <v>42715</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="2">
+        <v>42715</v>
+      </c>
+      <c r="C6" s="3">
         <f t="shared" si="1"/>
         <v>39212.4173958333</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>39212.4189583333</v>
       </c>
@@ -1198,14 +1174,14 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
-        <v>42715</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="2">
+        <v>42715</v>
+      </c>
+      <c r="C7" s="3">
         <f t="shared" si="1"/>
         <v>39212.4590625</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>39212.460625</v>
       </c>
@@ -1217,14 +1193,14 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
-        <v>42715</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="2">
+        <v>42715</v>
+      </c>
+      <c r="C8" s="3">
         <f t="shared" si="1"/>
         <v>39212.5007291667</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>39212.5022916667</v>
       </c>
@@ -1236,14 +1212,14 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <v>42715</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="2">
+        <v>42715</v>
+      </c>
+      <c r="C9" s="3">
         <f t="shared" si="1"/>
         <v>39212.5423958333</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>39212.5439583333</v>
       </c>
@@ -1255,14 +1231,14 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
-        <v>42715</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="2">
+        <v>42715</v>
+      </c>
+      <c r="C10" s="3">
         <f t="shared" si="1"/>
         <v>39212.5840625</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>39212.585625</v>
       </c>
@@ -1274,14 +1250,14 @@
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
-        <v>42715</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="2">
+        <v>42715</v>
+      </c>
+      <c r="C11" s="3">
         <f t="shared" si="1"/>
         <v>39212.6257291666</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>39212.6272916666</v>
       </c>
@@ -1293,14 +1269,14 @@
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7">
-        <v>42715</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="2">
+        <v>42715</v>
+      </c>
+      <c r="C12" s="3">
         <f t="shared" si="1"/>
         <v>39212.6673958333</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f>C12+TIME(0,2,35)</f>
         <v>39212.6691898148</v>
       </c>
@@ -1312,14 +1288,14 @@
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3">
-        <v>42715</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="2">
+        <v>42715</v>
+      </c>
+      <c r="C13" s="3">
         <f t="shared" si="1"/>
         <v>39212.7090625</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f>C13+TIME(0,3,15)</f>
         <v>39212.7113194444</v>
       </c>
@@ -1331,14 +1307,14 @@
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="7">
-        <v>42715</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="2">
+        <v>42715</v>
+      </c>
+      <c r="C14" s="3">
         <f t="shared" si="1"/>
         <v>39212.7507291666</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>39212.7522916666</v>
       </c>
@@ -1350,14 +1326,14 @@
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="3">
-        <v>42715</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="2">
+        <v>42715</v>
+      </c>
+      <c r="C15" s="3">
         <f t="shared" si="1"/>
         <v>39212.7923958333</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>39212.7939583333</v>
       </c>
@@ -1369,14 +1345,14 @@
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="7">
-        <v>42715</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="2">
+        <v>42715</v>
+      </c>
+      <c r="C16" s="3">
         <f t="shared" si="1"/>
         <v>39212.8340625</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <f>C16+TIME(0,2,45)</f>
         <v>39212.8359722222</v>
       </c>
@@ -1388,14 +1364,14 @@
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="3">
-        <v>42715</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="2">
+        <v>42715</v>
+      </c>
+      <c r="C17" s="3">
         <f t="shared" si="1"/>
         <v>39212.8757291666</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <f>C17+TIME(0,4,15)</f>
         <v>39212.8786805555</v>
       </c>
@@ -1407,14 +1383,14 @@
       <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="7">
-        <v>42715</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="2">
+        <v>42715</v>
+      </c>
+      <c r="C18" s="3">
         <f t="shared" si="1"/>
         <v>39212.9173958333</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <f t="shared" si="0"/>
         <v>39212.9189583333</v>
       </c>
@@ -1426,14 +1402,14 @@
       <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="3">
-        <v>42715</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="2">
+        <v>42715</v>
+      </c>
+      <c r="C19" s="3">
         <f t="shared" si="1"/>
         <v>39212.9590625</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>39212.960625</v>
       </c>
@@ -1445,14 +1421,14 @@
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="7">
-        <v>42715</v>
-      </c>
-      <c r="C20" s="4">
-        <f>C19+TIME(1,0,0)</f>
+      <c r="B20" s="2">
+        <v>42715</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="1"/>
         <v>39213.0007291666</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <f>C20+TIME(0,2,45)</f>
         <v>39213.0026388889</v>
       </c>
@@ -1464,14 +1440,14 @@
       <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="8">
-        <v>42716</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C21" s="3">
         <f t="shared" ref="C21:C30" si="2">C20+TIME(1,0,0)</f>
         <v>39213.0423958333</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <f>C21+TIME(0,3,45)</f>
         <v>39213.045</v>
       </c>
@@ -1483,14 +1459,14 @@
       <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="8">
-        <v>42716</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C22" s="3">
         <f t="shared" si="2"/>
         <v>39213.0840625</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <f t="shared" si="0"/>
         <v>39213.085625</v>
       </c>
@@ -1502,14 +1478,14 @@
       <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="8">
-        <v>42716</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="B23" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C23" s="3">
         <f t="shared" si="2"/>
         <v>39213.1257291666</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <f t="shared" si="0"/>
         <v>39213.1272916666</v>
       </c>
@@ -1521,14 +1497,14 @@
       <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="8">
-        <v>42716</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C24" s="3">
         <f t="shared" si="2"/>
         <v>39213.1673958333</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>39213.1689583333</v>
       </c>
@@ -1540,14 +1516,14 @@
       <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="8">
-        <v>42716</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="B25" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C25" s="3">
         <f t="shared" si="2"/>
         <v>39213.2090624999</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <f t="shared" si="0"/>
         <v>39213.2106249999</v>
       </c>
@@ -1559,14 +1535,14 @@
       <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="8">
-        <v>42716</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C26" s="3">
         <f t="shared" si="2"/>
         <v>39213.2507291666</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <f t="shared" si="0"/>
         <v>39213.2522916666</v>
       </c>
@@ -1578,14 +1554,14 @@
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="8">
-        <v>42716</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="B27" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C27" s="3">
         <f t="shared" si="2"/>
         <v>39213.2923958333</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <f t="shared" si="0"/>
         <v>39213.2939583333</v>
       </c>
@@ -1597,14 +1573,14 @@
       <c r="A28" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="8">
-        <v>42716</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B28" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C28" s="3">
         <f t="shared" si="2"/>
         <v>39213.3340624999</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <f t="shared" si="0"/>
         <v>39213.3356249999</v>
       </c>
@@ -1616,14 +1592,14 @@
       <c r="A29" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="8">
-        <v>42716</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="B29" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C29" s="3">
         <f t="shared" si="2"/>
         <v>39213.3757291666</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <f t="shared" si="0"/>
         <v>39213.3772916666</v>
       </c>
@@ -1635,14 +1611,14 @@
       <c r="A30" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="8">
-        <v>42716</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C30" s="3">
         <f t="shared" si="2"/>
         <v>39213.4173958333</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>39213.4189583333</v>
       </c>
@@ -1651,20 +1627,20 @@
       </c>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1685,7 +1661,7 @@
   <sheetFormatPr defaultColWidth="8.80116959064327" defaultRowHeight="12.85" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.3157894736842" customWidth="1"/>
-    <col min="2" max="2" width="10.3040935672515" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3040935672515" customWidth="1"/>
     <col min="3" max="4" width="6.6140350877193" customWidth="1"/>
     <col min="5" max="5" width="6.70760233918129" customWidth="1"/>
     <col min="6" max="6" width="8.82456140350877" customWidth="1"/>
@@ -1693,41 +1669,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="15.4" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <f>Nightly_Download!B2</f>
         <v>42715</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>Nightly_Download!C2+TIME(0,0,10)</f>
         <v>39212.2508449074</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <f>C2+TIME(0,0,10)</f>
         <v>39212.2509606481</v>
       </c>
@@ -1735,26 +1711,26 @@
         <f>IF(Nightly_Download!E2="SU","SU","FA")</f>
         <v>SU</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="15.4" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <f>Nightly_Download!B3</f>
         <v>42715</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>Nightly_Download!C3+TIME(0,0,10)</f>
         <v>39212.2925115741</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D30" si="0">C3+TIME(0,0,10)</f>
         <v>39212.2926273148</v>
       </c>
@@ -1764,18 +1740,18 @@
       </c>
     </row>
     <row r="4" ht="15.4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>Nightly_Download!B4</f>
         <v>42715</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f>Nightly_Download!C4+TIME(0,0,10)</f>
         <v>39212.3341782407</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>39212.3342939815</v>
       </c>
@@ -1785,18 +1761,18 @@
       </c>
     </row>
     <row r="5" ht="15.4" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f>Nightly_Download!B5</f>
         <v>42715</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>Nightly_Download!C5+TIME(0,0,10)</f>
         <v>39212.3758449074</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f>C5+TIME(0,0,30)</f>
         <v>39212.3761921296</v>
       </c>
@@ -1806,18 +1782,18 @@
       </c>
     </row>
     <row r="6" ht="15.4" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f>Nightly_Download!B6</f>
         <v>42715</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f>Nightly_Download!C6+TIME(0,0,10)</f>
         <v>39212.4175115741</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>39212.4176273148</v>
       </c>
@@ -1827,18 +1803,18 @@
       </c>
     </row>
     <row r="7" ht="15.4" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f>Nightly_Download!B7</f>
         <v>42715</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f>Nightly_Download!C7+TIME(0,0,10)</f>
         <v>39212.4591782407</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>39212.4592939815</v>
       </c>
@@ -1848,18 +1824,18 @@
       </c>
     </row>
     <row r="8" ht="15.4" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f>Nightly_Download!B8</f>
         <v>42715</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>Nightly_Download!C8+TIME(0,0,10)</f>
         <v>39212.5008449074</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>C8+TIME(0,0,25)</f>
         <v>39212.5011342592</v>
       </c>
@@ -1869,18 +1845,18 @@
       </c>
     </row>
     <row r="9" ht="15.4" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f>Nightly_Download!B9</f>
         <v>42715</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>Nightly_Download!C9+TIME(0,0,10)</f>
         <v>39212.5425115741</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>39212.5426273148</v>
       </c>
@@ -1890,18 +1866,18 @@
       </c>
     </row>
     <row r="10" ht="15.4" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f>Nightly_Download!B10</f>
         <v>42715</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f>Nightly_Download!C10+TIME(0,0,10)</f>
         <v>39212.5841782407</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>39212.5842939815</v>
       </c>
@@ -1911,18 +1887,18 @@
       </c>
     </row>
     <row r="11" ht="15.4" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f>Nightly_Download!B11</f>
         <v>42715</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>Nightly_Download!C11+TIME(0,0,10)</f>
         <v>39212.6258449074</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f>C11+TIME(0,0,50)</f>
         <v>39212.6264236111</v>
       </c>
@@ -1932,18 +1908,18 @@
       </c>
     </row>
     <row r="12" ht="15.4" spans="1:5">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f>Nightly_Download!B12</f>
         <v>42715</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f>Nightly_Download!C12+TIME(0,0,10)</f>
         <v>39212.6675115741</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f>C12+TIME(0,0,20)</f>
         <v>39212.6677430555</v>
       </c>
@@ -1952,18 +1928,18 @@
       </c>
     </row>
     <row r="13" ht="15.4" spans="1:5">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f>Nightly_Download!B13</f>
         <v>42715</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f>Nightly_Download!C13+TIME(0,0,10)</f>
         <v>39212.7091782407</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f>C13+TIME(0,0,25)</f>
         <v>39212.7094675926</v>
       </c>
@@ -1973,18 +1949,18 @@
       </c>
     </row>
     <row r="14" ht="15.4" spans="1:5">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f>Nightly_Download!B14</f>
         <v>42715</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f>Nightly_Download!C14+TIME(0,0,10)</f>
         <v>39212.7508449074</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>39212.7509606481</v>
       </c>
@@ -1994,18 +1970,18 @@
       </c>
     </row>
     <row r="15" ht="15.4" spans="1:5">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f>Nightly_Download!B15</f>
         <v>42715</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f>Nightly_Download!C15+TIME(0,0,10)</f>
         <v>39212.792511574</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>39212.7926273148</v>
       </c>
@@ -2015,18 +1991,18 @@
       </c>
     </row>
     <row r="16" ht="15.4" spans="1:5">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f>Nightly_Download!B16</f>
         <v>42715</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f>Nightly_Download!C16+TIME(0,0,10)</f>
         <v>39212.8341782407</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>39212.8342939814</v>
       </c>
@@ -2036,18 +2012,18 @@
       </c>
     </row>
     <row r="17" ht="15.4" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f>Nightly_Download!B17</f>
         <v>42715</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f>Nightly_Download!C17+TIME(0,0,10)</f>
         <v>39212.8758449074</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <f>C17+TIME(0,0,25)</f>
         <v>39212.8761342592</v>
       </c>
@@ -2057,18 +2033,18 @@
       </c>
     </row>
     <row r="18" ht="15.4" spans="1:5">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f>Nightly_Download!B18</f>
         <v>42715</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f>Nightly_Download!C18+TIME(0,0,10)</f>
         <v>39212.917511574</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <f>C18+TIME(0,0,10)</f>
         <v>39212.9176273148</v>
       </c>
@@ -2078,18 +2054,18 @@
       </c>
     </row>
     <row r="19" ht="15.4" spans="1:5">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <f>Nightly_Download!B19</f>
         <v>42715</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f>Nightly_Download!C19+TIME(0,0,10)</f>
         <v>39212.9591782407</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>39212.9592939814</v>
       </c>
@@ -2099,18 +2075,18 @@
       </c>
     </row>
     <row r="20" ht="15.4" spans="1:5">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <f>Nightly_Download!B20</f>
         <v>42715</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f>Nightly_Download!C20+TIME(0,0,10)</f>
         <v>39213.0008449074</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <f>C20+TIME(0,0,40)</f>
         <v>39213.0013078703</v>
       </c>
@@ -2120,18 +2096,18 @@
       </c>
     </row>
     <row r="21" ht="15.4" spans="1:5">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <f>Nightly_Download!B21</f>
         <v>42716</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <f>Nightly_Download!C21+TIME(0,0,10)</f>
         <v>39213.042511574</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <f>C21+TIME(0,0,25)</f>
         <v>39213.0428009259</v>
       </c>
@@ -2141,18 +2117,18 @@
       </c>
     </row>
     <row r="22" ht="15.4" spans="1:5">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <f>Nightly_Download!B22</f>
         <v>42716</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <f>Nightly_Download!C22+TIME(0,0,10)</f>
         <v>39213.0841782407</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <f t="shared" si="0"/>
         <v>39213.0842939814</v>
       </c>
@@ -2162,18 +2138,18 @@
       </c>
     </row>
     <row r="23" ht="15.4" spans="1:5">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <f>Nightly_Download!B23</f>
         <v>42716</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <f>Nightly_Download!C23+TIME(0,0,10)</f>
         <v>39213.1258449074</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <f t="shared" si="0"/>
         <v>39213.1259606481</v>
       </c>
@@ -2183,18 +2159,18 @@
       </c>
     </row>
     <row r="24" ht="15.4" spans="1:5">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <f>Nightly_Download!B24</f>
         <v>42716</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <f>Nightly_Download!C24+TIME(0,0,10)</f>
         <v>39213.167511574</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>39213.1676273148</v>
       </c>
@@ -2204,18 +2180,18 @@
       </c>
     </row>
     <row r="25" ht="15.4" spans="1:5">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f>Nightly_Download!B25</f>
         <v>42716</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <f>Nightly_Download!C25+TIME(0,0,10)</f>
         <v>39213.2091782407</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <f t="shared" si="0"/>
         <v>39213.2092939814</v>
       </c>
@@ -2225,18 +2201,18 @@
       </c>
     </row>
     <row r="26" ht="15.4" spans="1:5">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <f>Nightly_Download!B26</f>
         <v>42716</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f>Nightly_Download!C26+TIME(0,0,10)</f>
         <v>39213.2508449074</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <f t="shared" si="0"/>
         <v>39213.2509606481</v>
       </c>
@@ -2246,18 +2222,18 @@
       </c>
     </row>
     <row r="27" ht="15.4" spans="1:5">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <f>Nightly_Download!B27</f>
         <v>42716</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f>Nightly_Download!C27+TIME(0,0,10)</f>
         <v>39213.292511574</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <f t="shared" si="0"/>
         <v>39213.2926273148</v>
       </c>
@@ -2267,18 +2243,18 @@
       </c>
     </row>
     <row r="28" ht="15.4" spans="1:5">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <f>Nightly_Download!B28</f>
         <v>42716</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f>Nightly_Download!C28+TIME(0,0,10)</f>
         <v>39213.3341782407</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <f t="shared" si="0"/>
         <v>39213.3342939814</v>
       </c>
@@ -2288,18 +2264,18 @@
       </c>
     </row>
     <row r="29" ht="15.4" spans="1:5">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <f>Nightly_Download!B29</f>
         <v>42716</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <f>Nightly_Download!C29+TIME(0,0,10)</f>
         <v>39213.3758449073</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <f t="shared" si="0"/>
         <v>39213.3759606481</v>
       </c>
@@ -2309,18 +2285,18 @@
       </c>
     </row>
     <row r="30" ht="15.4" spans="1:5">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <f>Nightly_Download!B30</f>
         <v>42716</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <f>Nightly_Download!C30+TIME(0,0,10)</f>
         <v>39213.417511574</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>39213.4176273147</v>
       </c>
@@ -2330,8 +2306,8 @@
       </c>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2345,14 +2321,14 @@
   <sheetPr/>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.80116959064327" defaultRowHeight="12.85" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.6140350877193" customWidth="1"/>
-    <col min="2" max="2" width="10.3040935672515" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3040935672515" customWidth="1"/>
     <col min="3" max="4" width="6.6140350877193" customWidth="1"/>
     <col min="5" max="5" width="6.71345029239766" customWidth="1"/>
     <col min="6" max="6" width="8.82456140350877" customWidth="1"/>
@@ -2360,655 +2336,655 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="15.4" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <f>Watch_4_File!B2</f>
         <v>42715</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>Watch_4_File!D2+TIME(0,0,15)</f>
         <v>39212.2511342593</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <f>C2+TIME(0,0,30)</f>
         <v>39212.2514814815</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" t="str">
         <f>IF(Watch_4_File!E2="SU","SU","FA")</f>
         <v>SU</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="15.4" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <f>Watch_4_File!B3</f>
         <v>42715</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>Watch_4_File!D3+TIME(0,0,15)</f>
         <v>39212.2928009259</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D30" si="0">C3+TIME(0,0,30)</f>
         <v>39212.2931481481</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" t="str">
         <f>IF(Watch_4_File!E3="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="4" ht="15.4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>Watch_4_File!B4</f>
         <v>42715</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f>Watch_4_File!D4+TIME(0,0,15)</f>
         <v>39212.3344675926</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>39212.3348148148</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" t="str">
         <f>IF(Watch_4_File!E4="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="5" ht="15.4" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f>Watch_4_File!B5</f>
         <v>42715</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>Watch_4_File!D5+TIME(0,0,15)</f>
         <v>39212.3763657407</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>39212.376712963</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" t="str">
         <f>IF(Watch_4_File!E5="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="6" ht="15.4" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f>Watch_4_File!B6</f>
         <v>42715</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f>Watch_4_File!D6+TIME(0,0,15)</f>
         <v>39212.4178009259</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>39212.4181481481</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" t="str">
         <f>IF(Watch_4_File!E6="SU","SU","FA")</f>
         <v>FA</v>
       </c>
     </row>
     <row r="7" ht="15.4" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f>Watch_4_File!B7</f>
         <v>42715</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f>Watch_4_File!D7+TIME(0,0,15)</f>
         <v>39212.4594675926</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>39212.4598148148</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" t="str">
         <f>IF(Watch_4_File!E7="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="8" ht="15.4" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f>Watch_4_File!B8</f>
         <v>42715</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>Watch_4_File!D8+TIME(0,0,15)</f>
         <v>39212.5013078704</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>39212.5016550926</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" t="str">
         <f>IF(Watch_4_File!E8="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="9" ht="15.4" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f>Watch_4_File!B9</f>
         <v>42715</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>Watch_4_File!D9+TIME(0,0,15)</f>
         <v>39212.5428009259</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>39212.5431481481</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="E9" t="str">
         <f>IF(Watch_4_File!E9="SU","SU","FA")</f>
         <v>FA</v>
       </c>
     </row>
     <row r="10" ht="15.4" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f>Watch_4_File!B10</f>
         <v>42715</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f>Watch_4_File!D10+TIME(0,0,15)</f>
         <v>39212.5844675926</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>39212.5848148148</v>
       </c>
-      <c r="E10" s="1" t="str">
+      <c r="E10" t="str">
         <f>IF(Watch_4_File!E10="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="11" ht="15.4" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f>Watch_4_File!B11</f>
         <v>42715</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>Watch_4_File!D11+TIME(0,0,15)</f>
         <v>39212.6265972222</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>39212.6269444444</v>
       </c>
-      <c r="E11" s="1" t="str">
+      <c r="E11" t="str">
         <f>IF(Watch_4_File!E11="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="12" ht="15.4" spans="1:5">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f>Watch_4_File!B12</f>
         <v>42715</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f>Watch_4_File!D12+TIME(0,0,15)</f>
         <v>39212.6679166666</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>39212.6682638889</v>
       </c>
-      <c r="E12" s="1" t="str">
+      <c r="E12" t="str">
         <f>IF(Watch_4_File!E12="SU","SU","FA")</f>
         <v>FA</v>
       </c>
     </row>
     <row r="13" ht="15.4" spans="1:5">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f>Watch_4_File!B13</f>
         <v>42715</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f>Watch_4_File!D13+TIME(0,0,15)</f>
         <v>39212.7096412037</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f>C13+TIME(0,0,50)</f>
         <v>39212.7102199074</v>
       </c>
-      <c r="E13" s="1" t="str">
+      <c r="E13" t="str">
         <f>IF(Watch_4_File!E13="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="14" ht="15.4" spans="1:5">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f>Watch_4_File!B14</f>
         <v>42715</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f>Watch_4_File!D14+TIME(0,0,15)</f>
         <v>39212.7511342592</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <f>C14+TIME(0,0,40)</f>
         <v>39212.7515972222</v>
       </c>
-      <c r="E14" s="1" t="str">
+      <c r="E14" t="str">
         <f>IF(Watch_4_File!E14="SU","SU","FA")</f>
         <v>FA</v>
       </c>
     </row>
     <row r="15" ht="15.4" spans="1:5">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f>Watch_4_File!B15</f>
         <v>42715</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f>Watch_4_File!D15+TIME(0,0,15)</f>
         <v>39212.7928009259</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>39212.7931481481</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" ht="15.4" spans="1:5">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f>Watch_4_File!B16</f>
         <v>42715</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f>Watch_4_File!D16+TIME(0,0,15)</f>
         <v>39212.8344675926</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>39212.8348148148</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" ht="15.4" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f>Watch_4_File!B17</f>
         <v>42715</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f>Watch_4_File!D17+TIME(0,0,15)</f>
         <v>39212.8763078703</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>39212.8766550926</v>
       </c>
-      <c r="E17" s="1" t="str">
+      <c r="E17" t="str">
         <f>IF(Watch_4_File!E17="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="18" ht="15.4" spans="1:5">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f>Watch_4_File!B18</f>
         <v>42715</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f>Watch_4_File!D18+TIME(0,0,15)</f>
         <v>39212.9178009259</v>
       </c>
-      <c r="D18" s="4">
-        <f>C18+TIME(0,0,30)</f>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
         <v>39212.9181481481</v>
       </c>
-      <c r="E18" s="1" t="str">
+      <c r="E18" t="str">
         <f>IF(Watch_4_File!E18="SU","SU","FA")</f>
         <v>FA</v>
       </c>
     </row>
     <row r="19" ht="15.4" spans="1:5">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <f>Watch_4_File!B19</f>
         <v>42715</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f>Watch_4_File!D19+TIME(0,0,15)</f>
         <v>39212.9594675925</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>39212.9598148148</v>
       </c>
-      <c r="E19" s="1" t="str">
+      <c r="E19" t="str">
         <f>IF(Watch_4_File!E19="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="20" ht="15.4" spans="1:5">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <f>Watch_4_File!B20</f>
         <v>42715</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f>Watch_4_File!D20+TIME(0,0,15)</f>
         <v>39213.0014814814</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>39213.0018287037</v>
       </c>
-      <c r="E20" s="1" t="str">
+      <c r="E20" t="str">
         <f>IF(Watch_4_File!E20="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="21" ht="15.4" spans="1:5">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <f>Watch_4_File!B21</f>
         <v>42716</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <f>Watch_4_File!D21+TIME(0,0,15)</f>
         <v>39213.042974537</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <f t="shared" si="0"/>
         <v>39213.0433217592</v>
       </c>
-      <c r="E21" s="1" t="str">
+      <c r="E21" t="str">
         <f>IF(Watch_4_File!E21="SU","SU","FA")</f>
         <v>FA</v>
       </c>
     </row>
     <row r="22" ht="15.4" spans="1:5">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <f>Watch_4_File!B22</f>
         <v>42716</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <f>Watch_4_File!D22+TIME(0,0,15)</f>
         <v>39213.0844675925</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <f t="shared" si="0"/>
         <v>39213.0848148148</v>
       </c>
-      <c r="E22" s="1" t="str">
+      <c r="E22" t="str">
         <f>IF(Watch_4_File!E22="SU","SU","FA")</f>
         <v>FA</v>
       </c>
     </row>
     <row r="23" ht="15.4" spans="1:5">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <f>Watch_4_File!B23</f>
         <v>42716</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <f>Watch_4_File!D23+TIME(0,0,15)</f>
         <v>39213.1261342592</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <f t="shared" si="0"/>
         <v>39213.1264814814</v>
       </c>
-      <c r="E23" s="1" t="str">
+      <c r="E23" t="str">
         <f>IF(Watch_4_File!E23="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="24" ht="15.4" spans="1:5">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <f>Watch_4_File!B24</f>
         <v>42716</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <f>Watch_4_File!D24+TIME(0,0,15)</f>
         <v>39213.1678009259</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>39213.1681481481</v>
       </c>
-      <c r="E24" s="1" t="str">
+      <c r="E24" t="str">
         <f>IF(Watch_4_File!E24="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="25" ht="15.4" spans="1:5">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f>Watch_4_File!B25</f>
         <v>42716</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <f>Watch_4_File!D25+TIME(0,0,15)</f>
         <v>39213.2094675925</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <f>C25+TIME(0,0,50)</f>
         <v>39213.2100462962</v>
       </c>
-      <c r="E25" s="1" t="str">
+      <c r="E25" t="str">
         <f>IF(Watch_4_File!E25="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="26" ht="15.4" spans="1:5">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <f>Watch_4_File!B26</f>
         <v>42716</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f>Watch_4_File!D26+TIME(0,0,15)</f>
         <v>39213.2511342592</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <f t="shared" si="0"/>
         <v>39213.2514814814</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" ht="15.4" spans="1:5">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <f>Watch_4_File!B27</f>
         <v>42716</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f>Watch_4_File!D27+TIME(0,0,15)</f>
         <v>39213.2928009259</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <f t="shared" si="0"/>
         <v>39213.2931481481</v>
       </c>
-      <c r="E27" s="1" t="str">
+      <c r="E27" t="str">
         <f>IF(Watch_4_File!E27="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="28" ht="15.4" spans="1:5">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <f>Watch_4_File!B28</f>
         <v>42716</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f>Watch_4_File!D28+TIME(0,0,15)</f>
         <v>39213.3344675925</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <f t="shared" si="0"/>
         <v>39213.3348148147</v>
       </c>
-      <c r="E28" s="1" t="str">
+      <c r="E28" t="str">
         <f>IF(Watch_4_File!E28="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="29" ht="15.4" spans="1:5">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <f>Watch_4_File!B29</f>
         <v>42716</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <f>Watch_4_File!D29+TIME(0,0,15)</f>
         <v>39213.3761342592</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <f t="shared" si="0"/>
         <v>39213.3764814814</v>
       </c>
-      <c r="E29" s="1" t="str">
+      <c r="E29" t="str">
         <f>IF(Watch_4_File!E29="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="30" ht="15.4" spans="1:5">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <f>Watch_4_File!B30</f>
         <v>42716</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <f>Watch_4_File!D30+TIME(0,0,15)</f>
         <v>39213.4178009259</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>39213.4181481481</v>
       </c>
-      <c r="E30" s="1" t="str">
+      <c r="E30" t="str">
         <f>IF(Watch_4_File!E30="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3029,7 +3005,7 @@
   <sheetFormatPr defaultColWidth="8.80116959064327" defaultRowHeight="12.85" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.6140350877193" customWidth="1"/>
-    <col min="2" max="2" width="10.3040935672515" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3040935672515" customWidth="1"/>
     <col min="3" max="4" width="6.6140350877193" customWidth="1"/>
     <col min="5" max="5" width="6.71345029239766" customWidth="1"/>
     <col min="6" max="6" width="8.82456140350877" customWidth="1"/>
@@ -3037,646 +3013,646 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="15.4" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <f>Watch_4_File!B2</f>
         <v>42715</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>filter_data!D2+TIME(0,0,15)</f>
         <v>39212.2516550926</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <f>C2+TIME(0,0,30)</f>
         <v>39212.2520023148</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" t="str">
         <f>IF(filter_data!E2="SU","SU","FA")</f>
         <v>SU</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="15.4" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <f>Watch_4_File!B3</f>
         <v>42715</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>filter_data!D3+TIME(0,0,15)</f>
-        <v>39212.2933217593</v>
-      </c>
-      <c r="D3" s="4">
+        <v>39212.2933217592</v>
+      </c>
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D30" si="0">C3+TIME(0,0,30)</f>
         <v>39212.2936689815</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" t="str">
         <f>IF(filter_data!E3="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="4" ht="15.4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>Watch_4_File!B4</f>
         <v>42715</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f>filter_data!D4+TIME(0,0,15)</f>
         <v>39212.3349884259</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>39212.3353356481</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" t="str">
         <f>IF(filter_data!E4="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="5" ht="15.4" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f>Watch_4_File!B5</f>
         <v>42715</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>filter_data!D5+TIME(0,0,15)</f>
         <v>39212.3768865741</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>39212.3772337963</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" t="str">
         <f>IF(filter_data!E5="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="6" ht="15.4" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f>Watch_4_File!B6</f>
         <v>42715</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f>filter_data!D6+TIME(0,0,15)</f>
         <v>39212.4183217592</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>39212.4186689815</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" t="str">
         <f>IF(filter_data!E6="SU","SU","FA")</f>
         <v>FA</v>
       </c>
     </row>
     <row r="7" ht="15.4" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f>Watch_4_File!B7</f>
         <v>42715</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f>filter_data!D7+TIME(0,0,15)</f>
         <v>39212.4599884259</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>39212.4603356481</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" t="str">
         <f>IF(filter_data!E7="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="8" ht="15.4" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f>Watch_4_File!B8</f>
         <v>42715</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>filter_data!D8+TIME(0,0,15)</f>
         <v>39212.5018287037</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>39212.5021759259</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" t="str">
         <f>IF(filter_data!E8="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="9" ht="15.4" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f>Watch_4_File!B9</f>
         <v>42715</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>filter_data!D9+TIME(0,0,15)</f>
         <v>39212.5433217592</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>39212.5436689815</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="E9" t="str">
         <f>IF(filter_data!E9="SU","SU","FA")</f>
         <v>FA</v>
       </c>
     </row>
     <row r="10" ht="15.4" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f>Watch_4_File!B10</f>
         <v>42715</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f>filter_data!D10+TIME(0,0,15)</f>
         <v>39212.5849884259</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>39212.5853356481</v>
       </c>
-      <c r="E10" s="1" t="str">
+      <c r="E10" t="str">
         <f>IF(filter_data!E10="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="11" ht="15.4" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f>Watch_4_File!B11</f>
         <v>42715</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>filter_data!D11+TIME(0,0,15)</f>
         <v>39212.6271180555</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>39212.6274652778</v>
       </c>
-      <c r="E11" s="1" t="str">
+      <c r="E11" t="str">
         <f>IF(filter_data!E11="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="12" ht="15.4" spans="1:5">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f>Watch_4_File!B12</f>
         <v>42715</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f>filter_data!D12+TIME(0,0,15)</f>
         <v>39212.6684375</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>39212.6687847222</v>
       </c>
-      <c r="E12" s="1" t="str">
+      <c r="E12" t="str">
         <f>IF(filter_data!E12="SU","SU","FA")</f>
         <v>FA</v>
       </c>
     </row>
     <row r="13" ht="15.4" spans="1:5">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f>Watch_4_File!B13</f>
         <v>42715</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f>filter_data!D13+TIME(0,0,15)</f>
         <v>39212.7103935185</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>39212.7107407407</v>
       </c>
-      <c r="E13" s="1" t="str">
+      <c r="E13" t="str">
         <f>IF(filter_data!E13="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="14" ht="15.4" spans="1:5">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f>Watch_4_File!B14</f>
         <v>42715</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f>filter_data!D14+TIME(0,0,15)</f>
         <v>39212.7517708333</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>39212.7521180555</v>
       </c>
-      <c r="E14" s="1" t="str">
+      <c r="E14" t="str">
         <f>IF(filter_data!E14="SU","SU","FA")</f>
         <v>FA</v>
       </c>
     </row>
     <row r="15" ht="15.4" spans="1:5">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f>Watch_4_File!B15</f>
         <v>42715</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f>filter_data!D15+TIME(0,0,15)</f>
         <v>39212.7933217592</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>39212.7936689814</v>
       </c>
-      <c r="E15" s="1" t="str">
+      <c r="E15" t="str">
         <f>IF(filter_data!E15="SU","SU","FA")</f>
         <v>FA</v>
       </c>
     </row>
     <row r="16" ht="15.4" spans="1:5">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f>Watch_4_File!B16</f>
         <v>42715</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f>filter_data!D16+TIME(0,0,15)</f>
         <v>39212.8349884259</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>39212.8353356481</v>
       </c>
-      <c r="E16" s="1" t="str">
+      <c r="E16" t="str">
         <f>IF(filter_data!E16="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="17" ht="15.4" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f>Watch_4_File!B17</f>
         <v>42715</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f>filter_data!D17+TIME(0,0,15)</f>
         <v>39212.8768287037</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>39212.8771759259</v>
       </c>
-      <c r="E17" s="1" t="str">
+      <c r="E17" t="str">
         <f>IF(filter_data!E17="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="18" ht="15.4" spans="1:5">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f>Watch_4_File!B18</f>
         <v>42715</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f>filter_data!D18+TIME(0,0,15)</f>
         <v>39212.9183217592</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <f t="shared" si="0"/>
         <v>39212.9186689814</v>
       </c>
-      <c r="E18" s="1" t="str">
+      <c r="E18" t="str">
         <f>IF(filter_data!E18="SU","SU","FA")</f>
         <v>FA</v>
       </c>
     </row>
     <row r="19" ht="15.4" spans="1:5">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <f>Watch_4_File!B19</f>
         <v>42715</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f>filter_data!D19+TIME(0,0,15)</f>
         <v>39212.9599884259</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>39212.9603356481</v>
       </c>
-      <c r="E19" s="1" t="str">
+      <c r="E19" t="str">
         <f>IF(filter_data!E19="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="20" ht="15.4" spans="1:5">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <f>Watch_4_File!B20</f>
         <v>42715</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f>filter_data!D20+TIME(0,0,15)</f>
         <v>39213.0020023148</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>39213.002349537</v>
       </c>
-      <c r="E20" s="1" t="str">
+      <c r="E20" t="str">
         <f>IF(filter_data!E20="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="21" ht="15.4" spans="1:5">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <f>Watch_4_File!B21</f>
         <v>42716</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <f>filter_data!D21+TIME(0,0,15)</f>
         <v>39213.0434953703</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <f t="shared" si="0"/>
         <v>39213.0438425925</v>
       </c>
-      <c r="E21" s="1" t="str">
+      <c r="E21" t="str">
         <f>IF(filter_data!E21="SU","SU","FA")</f>
         <v>FA</v>
       </c>
     </row>
     <row r="22" ht="15.4" spans="1:5">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <f>Watch_4_File!B22</f>
         <v>42716</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <f>filter_data!D22+TIME(0,0,15)</f>
         <v>39213.0849884259</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <f t="shared" si="0"/>
         <v>39213.0853356481</v>
       </c>
-      <c r="E22" s="1" t="str">
+      <c r="E22" t="str">
         <f>IF(filter_data!E22="SU","SU","FA")</f>
         <v>FA</v>
       </c>
     </row>
     <row r="23" ht="15.4" spans="1:5">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <f>Watch_4_File!B23</f>
         <v>42716</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <f>filter_data!D23+TIME(0,0,15)</f>
         <v>39213.1266550925</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <f t="shared" si="0"/>
         <v>39213.1270023148</v>
       </c>
-      <c r="E23" s="1" t="str">
+      <c r="E23" t="str">
         <f>IF(filter_data!E23="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="24" ht="15.4" spans="1:5">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <f>Watch_4_File!B24</f>
         <v>42716</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <f>filter_data!D24+TIME(0,0,15)</f>
         <v>39213.1683217592</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>39213.1686689814</v>
       </c>
-      <c r="E24" s="1" t="str">
+      <c r="E24" t="str">
         <f>IF(filter_data!E24="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="25" ht="15.4" spans="1:5">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f>Watch_4_File!B25</f>
         <v>42716</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <f>filter_data!D25+TIME(0,0,15)</f>
         <v>39213.2102199073</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <f t="shared" si="0"/>
         <v>39213.2105671296</v>
       </c>
-      <c r="E25" s="1" t="str">
+      <c r="E25" t="str">
         <f>IF(filter_data!E25="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="26" ht="15.4" spans="1:5">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <f>Watch_4_File!B26</f>
         <v>42716</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f>filter_data!D26+TIME(0,0,15)</f>
         <v>39213.2516550925</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <f t="shared" si="0"/>
         <v>39213.2520023148</v>
       </c>
-      <c r="E26" s="1" t="str">
+      <c r="E26" t="str">
         <f>IF(filter_data!E26="SU","SU","FA")</f>
         <v>FA</v>
       </c>
     </row>
     <row r="27" ht="15.4" spans="1:5">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <f>Watch_4_File!B27</f>
         <v>42716</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f>filter_data!D27+TIME(0,0,15)</f>
         <v>39213.2933217592</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <f t="shared" si="0"/>
         <v>39213.2936689814</v>
       </c>
-      <c r="E27" s="1" t="str">
+      <c r="E27" t="str">
         <f>IF(filter_data!E27="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="28" ht="15.4" spans="1:5">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <f>Watch_4_File!B28</f>
         <v>42716</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f>filter_data!D28+TIME(0,0,15)</f>
         <v>39213.3349884259</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <f t="shared" si="0"/>
         <v>39213.3353356481</v>
       </c>
-      <c r="E28" s="1" t="str">
+      <c r="E28" t="str">
         <f>IF(filter_data!E28="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="29" ht="15.4" spans="1:5">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <f>Watch_4_File!B29</f>
         <v>42716</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <f>filter_data!D29+TIME(0,0,15)</f>
         <v>39213.3766550925</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <f t="shared" si="0"/>
         <v>39213.3770023147</v>
       </c>
-      <c r="E29" s="1" t="str">
+      <c r="E29" t="str">
         <f>IF(filter_data!E29="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="30" ht="15.4" spans="1:5">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <f>Watch_4_File!B30</f>
         <v>42716</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <f>filter_data!D30+TIME(0,0,15)</f>
         <v>39213.4183217592</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>39213.4186689814</v>
       </c>
-      <c r="E30" s="1" t="str">
+      <c r="E30" t="str">
         <f>IF(filter_data!E30="SU","SU","FA")</f>
         <v>SU</v>
       </c>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/barclays-autosys/Sample_Log.xlsx
+++ b/barclays-autosys/Sample_Log.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23297" windowHeight="9822"/>
+    <workbookView windowWidth="23297" windowHeight="9822" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Nightly_Download" sheetId="1" r:id="rId1"/>
     <sheet name="Watch_4_File" sheetId="2" r:id="rId2"/>
     <sheet name="filter_data" sheetId="3" r:id="rId3"/>
     <sheet name="parse_data" sheetId="4" r:id="rId4"/>
+    <sheet name="database" sheetId="5" r:id="rId5"/>
+    <sheet name="upload" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>Job_Name</t>
   </si>
@@ -43,13 +45,16 @@
     <t>Nightly_Download</t>
   </si>
   <si>
-    <t>SU</t>
-  </si>
-  <si>
     <t>??</t>
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Watch_4_File</t>
+  </si>
+  <si>
+    <t>SU</t>
   </si>
   <si>
     <t>FA</t>
@@ -58,13 +63,16 @@
     <t>IN</t>
   </si>
   <si>
-    <t>Watch_4_File</t>
-  </si>
-  <si>
     <t>filter_data</t>
   </si>
   <si>
     <t>parse_data</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>upload</t>
   </si>
 </sst>
 </file>
@@ -72,14 +80,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +97,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,7 +126,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -119,9 +134,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,7 +157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,31 +171,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,21 +188,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -209,16 +202,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +220,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +242,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,13 +276,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,13 +294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,12 +312,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -321,7 +324,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +366,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,25 +396,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,67 +444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +488,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -484,6 +523,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,41 +553,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -551,168 +566,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,15 +1059,16 @@
   <sheetPr/>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.4327485380117" defaultRowHeight="12.85" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.327485380117" customWidth="1"/>
     <col min="2" max="2" width="10.3040935672515" customWidth="1"/>
-    <col min="3" max="4" width="6.6140350877193" customWidth="1"/>
+    <col min="3" max="3" width="6.6140350877193" customWidth="1"/>
+    <col min="4" max="4" width="9.71929824561403" customWidth="1"/>
     <col min="5" max="5" width="6.71345029239766" customWidth="1"/>
     <col min="6" max="6" width="8.82456140350877" customWidth="1"/>
     <col min="7" max="7" width="6.42105263157895" customWidth="1"/>
@@ -1074,573 +1102,602 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>42715</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C2" s="4">
         <v>39212.2507291667</v>
       </c>
-      <c r="D2" s="3">
-        <f>C2+TIME(0,2,15)</f>
-        <v>39212.2522916667</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="4">
+        <f>IF(E2="SU",parse_data!D2+TIME(0,0,3),"--")</f>
+        <v>39212.252037037</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(AND(Watch_4_File!E2="SU",filter_data!E2="SU",parse_data!E2="SU"),"SU","FA")</f>
+        <v>SU</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" ht="15.4" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
-        <v>42715</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C3" s="4">
         <f>C2+TIME(1,0,0)</f>
         <v>39212.2923958333</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D30" si="0">C3+TIME(0,2,15)</f>
-        <v>39212.2939583333</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="D3" s="4">
+        <f>IF(E3="SU",parse_data!D3+TIME(0,0,3),"--")</f>
+        <v>39212.2937037037</v>
+      </c>
+      <c r="E3" t="str">
+        <f>IF(AND(Watch_4_File!E3="SU",filter_data!E3="SU",parse_data!E3="SU"),"SU","FA")</f>
+        <v>SU</v>
       </c>
     </row>
     <row r="4" ht="15.4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>42715</v>
-      </c>
-      <c r="C4" s="3">
-        <f t="shared" ref="C4:C20" si="1">C3+TIME(1,0,0)</f>
+      <c r="B4" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:C20" si="0">C3+TIME(1,0,0)</f>
         <v>39212.3340625</v>
       </c>
-      <c r="D4" s="3">
-        <f>C4+TIME(0,4,15)</f>
-        <v>39212.3370138889</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
+      <c r="D4" s="4">
+        <f>IF(E4="SU",parse_data!D4+TIME(0,0,3),"--")</f>
+        <v>39212.3353703704</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(AND(Watch_4_File!E4="SU",filter_data!E4="SU",parse_data!E4="SU"),"SU","FA")</f>
+        <v>SU</v>
       </c>
     </row>
     <row r="5" ht="15.4" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
-        <v>42715</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" si="1"/>
+      <c r="B5" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
         <v>39212.3757291667</v>
       </c>
-      <c r="D5" s="3">
-        <f>C5+TIME(0,4,15)</f>
-        <v>39212.3786805556</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
+      <c r="D5" s="4">
+        <f>IF(E5="SU",parse_data!D5+TIME(0,0,3),"--")</f>
+        <v>39212.3772685185</v>
+      </c>
+      <c r="E5" t="str">
+        <f>IF(AND(Watch_4_File!E5="SU",filter_data!E5="SU",parse_data!E5="SU"),"SU","FA")</f>
+        <v>SU</v>
       </c>
     </row>
     <row r="6" ht="15.4" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>42715</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" si="1"/>
+      <c r="B6" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
         <v>39212.4173958333</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.4189583333</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
+      <c r="D6" s="4" t="str">
+        <f>IF(E6="SU",parse_data!D6+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(AND(Watch_4_File!E6="SU",filter_data!E6="SU",parse_data!E6="SU"),"SU","FA")</f>
+        <v>FA</v>
       </c>
     </row>
     <row r="7" ht="15.4" spans="1:5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>42715</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="1"/>
+      <c r="B7" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
         <v>39212.4590625</v>
       </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.460625</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
+      <c r="D7" s="4">
+        <f>IF(E7="SU",parse_data!D7+TIME(0,0,3),"--")</f>
+        <v>39212.4603703704</v>
+      </c>
+      <c r="E7" t="str">
+        <f>IF(AND(Watch_4_File!E7="SU",filter_data!E7="SU",parse_data!E7="SU"),"SU","FA")</f>
+        <v>SU</v>
       </c>
     </row>
     <row r="8" ht="15.4" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>42715</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="1"/>
+      <c r="B8" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
         <v>39212.5007291667</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.5022916667</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
+      <c r="D8" s="4">
+        <f>IF(E8="SU",parse_data!D8+TIME(0,0,3),"--")</f>
+        <v>39212.5022106481</v>
+      </c>
+      <c r="E8" t="str">
+        <f>IF(AND(Watch_4_File!E8="SU",filter_data!E8="SU",parse_data!E8="SU"),"SU","FA")</f>
+        <v>SU</v>
       </c>
     </row>
     <row r="9" ht="15.4" spans="1:5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>42715</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="1"/>
+      <c r="B9" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
         <v>39212.5423958333</v>
       </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.5439583333</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
+      <c r="D9" s="4" t="str">
+        <f>IF(E9="SU",parse_data!D9+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="E9" t="str">
+        <f>IF(AND(Watch_4_File!E9="SU",filter_data!E9="SU",parse_data!E9="SU"),"SU","FA")</f>
+        <v>FA</v>
       </c>
     </row>
     <row r="10" ht="15.4" spans="1:5">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
-        <v>42715</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="1"/>
+      <c r="B10" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
         <v>39212.5840625</v>
       </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.585625</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
+      <c r="D10" s="4">
+        <f>IF(E10="SU",parse_data!D10+TIME(0,0,3),"--")</f>
+        <v>39212.5853703704</v>
+      </c>
+      <c r="E10" t="str">
+        <f>IF(AND(Watch_4_File!E10="SU",filter_data!E10="SU",parse_data!E10="SU"),"SU","FA")</f>
+        <v>SU</v>
       </c>
     </row>
     <row r="11" ht="15.4" spans="1:5">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
-        <v>42715</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" si="1"/>
+      <c r="B11" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
         <v>39212.6257291666</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.6272916666</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
+      <c r="D11" s="4">
+        <f>IF(E11="SU",parse_data!D11+TIME(0,0,3),"--")</f>
+        <v>39212.6275</v>
+      </c>
+      <c r="E11" t="str">
+        <f>IF(AND(Watch_4_File!E11="SU",filter_data!E11="SU",parse_data!E11="SU"),"SU","FA")</f>
+        <v>SU</v>
       </c>
     </row>
     <row r="12" ht="15.4" spans="1:5">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
-        <v>42715</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="1"/>
+      <c r="B12" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
         <v>39212.6673958333</v>
       </c>
-      <c r="D12" s="3">
-        <f>C12+TIME(0,2,35)</f>
-        <v>39212.6691898148</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
+      <c r="D12" s="4" t="str">
+        <f>IF(E12="SU",parse_data!D12+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="E12" t="str">
+        <f>IF(AND(Watch_4_File!E12="SU",filter_data!E12="SU",parse_data!E12="SU"),"SU","FA")</f>
+        <v>FA</v>
       </c>
     </row>
     <row r="13" ht="15.4" spans="1:5">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2">
-        <v>42715</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" si="1"/>
+      <c r="B13" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
         <v>39212.7090625</v>
       </c>
-      <c r="D13" s="3">
-        <f>C13+TIME(0,3,15)</f>
-        <v>39212.7113194444</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
+      <c r="D13" s="4">
+        <f>IF(E13="SU",parse_data!D13+TIME(0,0,3),"--")</f>
+        <v>39212.7105439815</v>
+      </c>
+      <c r="E13" t="str">
+        <f>IF(AND(Watch_4_File!E13="SU",filter_data!E13="SU",parse_data!E13="SU"),"SU","FA")</f>
+        <v>SU</v>
       </c>
     </row>
     <row r="14" ht="15.4" spans="1:5">
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="2">
-        <v>42715</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="1"/>
+      <c r="B14" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
         <v>39212.7507291666</v>
       </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.7522916666</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
+      <c r="D14" s="4" t="str">
+        <f>IF(E14="SU",parse_data!D14+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="E14" t="str">
+        <f>IF(AND(Watch_4_File!E14="SU",filter_data!E14="SU",parse_data!E14="SU"),"SU","FA")</f>
+        <v>FA</v>
       </c>
     </row>
     <row r="15" ht="15.4" spans="1:5">
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2">
-        <v>42715</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" si="1"/>
+      <c r="B15" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
         <v>39212.7923958333</v>
       </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.7939583333</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
+      <c r="D15" s="4" t="str">
+        <f>IF(E15="SU",parse_data!D15+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="E15" t="str">
+        <f>IF(AND(Watch_4_File!E15="SU",filter_data!E15="SU",parse_data!E15="SU"),"SU","FA")</f>
+        <v>FA</v>
       </c>
     </row>
     <row r="16" ht="15.4" spans="1:5">
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="2">
-        <v>42715</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" si="1"/>
+      <c r="B16" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
         <v>39212.8340625</v>
       </c>
-      <c r="D16" s="3">
-        <f>C16+TIME(0,2,45)</f>
-        <v>39212.8359722222</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
+      <c r="D16" s="4">
+        <f>IF(E16="SU",parse_data!D16+TIME(0,0,3),"--")</f>
+        <v>39212.8353703703</v>
+      </c>
+      <c r="E16" t="str">
+        <f>IF(AND(Watch_4_File!E16="SU",filter_data!E16="SU",parse_data!E16="SU"),"SU","FA")</f>
+        <v>SU</v>
       </c>
     </row>
     <row r="17" ht="15.4" spans="1:5">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2">
-        <v>42715</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" si="1"/>
+      <c r="B17" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
         <v>39212.8757291666</v>
       </c>
-      <c r="D17" s="3">
-        <f>C17+TIME(0,4,15)</f>
-        <v>39212.8786805555</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
+      <c r="D17" s="4">
+        <f>IF(E17="SU",parse_data!D17+TIME(0,0,3),"--")</f>
+        <v>39212.8772106481</v>
+      </c>
+      <c r="E17" t="str">
+        <f>IF(AND(Watch_4_File!E17="SU",filter_data!E17="SU",parse_data!E17="SU"),"SU","FA")</f>
+        <v>SU</v>
       </c>
     </row>
     <row r="18" ht="15.4" spans="1:5">
       <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="2">
-        <v>42715</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" si="1"/>
+      <c r="B18" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
         <v>39212.9173958333</v>
       </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.9189583333</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
+      <c r="D18" s="4" t="str">
+        <f>IF(E18="SU",parse_data!D18+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="E18" t="str">
+        <f>IF(AND(Watch_4_File!E18="SU",filter_data!E18="SU",parse_data!E18="SU"),"SU","FA")</f>
+        <v>FA</v>
       </c>
     </row>
     <row r="19" ht="15.4" spans="1:5">
       <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="2">
-        <v>42715</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" si="1"/>
+      <c r="B19" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
         <v>39212.9590625</v>
       </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.960625</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
+      <c r="D19" s="4">
+        <f>IF(E19="SU",parse_data!D19+TIME(0,0,3),"--")</f>
+        <v>39212.9603703703</v>
+      </c>
+      <c r="E19" t="str">
+        <f>IF(AND(Watch_4_File!E19="SU",filter_data!E19="SU",parse_data!E19="SU"),"SU","FA")</f>
+        <v>SU</v>
       </c>
     </row>
     <row r="20" ht="15.4" spans="1:5">
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="2">
-        <v>42715</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" si="1"/>
+      <c r="B20" s="7">
+        <v>42715</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
         <v>39213.0007291666</v>
       </c>
-      <c r="D20" s="3">
-        <f>C20+TIME(0,2,45)</f>
-        <v>39213.0026388889</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
+      <c r="D20" s="4">
+        <f>IF(E20="SU",parse_data!D20+TIME(0,0,3),"--")</f>
+        <v>39213.0023842592</v>
+      </c>
+      <c r="E20" t="str">
+        <f>IF(AND(Watch_4_File!E20="SU",filter_data!E20="SU",parse_data!E20="SU"),"SU","FA")</f>
+        <v>SU</v>
       </c>
     </row>
     <row r="21" ht="15.4" spans="1:5">
       <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="5">
-        <v>42716</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" ref="C21:C30" si="2">C20+TIME(1,0,0)</f>
+      <c r="B21" s="9">
+        <v>42716</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" ref="C21:C30" si="1">C20+TIME(1,0,0)</f>
         <v>39213.0423958333</v>
       </c>
-      <c r="D21" s="3">
-        <f>C21+TIME(0,3,45)</f>
-        <v>39213.045</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
+      <c r="D21" s="4" t="str">
+        <f>IF(E21="SU",parse_data!D21+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="E21" t="str">
+        <f>IF(AND(Watch_4_File!E21="SU",filter_data!E21="SU",parse_data!E21="SU"),"SU","FA")</f>
+        <v>FA</v>
       </c>
     </row>
     <row r="22" ht="15.4" spans="1:5">
       <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="5">
-        <v>42716</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" si="2"/>
+      <c r="B22" s="9">
+        <v>42716</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="1"/>
         <v>39213.0840625</v>
       </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.085625</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
+      <c r="D22" s="4" t="str">
+        <f>IF(E22="SU",parse_data!D22+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="E22" t="str">
+        <f>IF(AND(Watch_4_File!E22="SU",filter_data!E22="SU",parse_data!E22="SU"),"SU","FA")</f>
+        <v>FA</v>
       </c>
     </row>
     <row r="23" ht="15.4" spans="1:5">
       <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="5">
-        <v>42716</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" si="2"/>
+      <c r="B23" s="9">
+        <v>42716</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="1"/>
         <v>39213.1257291666</v>
       </c>
-      <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.1272916666</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
+      <c r="D23" s="4">
+        <f>IF(E23="SU",parse_data!D23+TIME(0,0,3),"--")</f>
+        <v>39213.127037037</v>
+      </c>
+      <c r="E23" t="str">
+        <f>IF(AND(Watch_4_File!E23="SU",filter_data!E23="SU",parse_data!E23="SU"),"SU","FA")</f>
+        <v>SU</v>
       </c>
     </row>
     <row r="24" ht="15.4" spans="1:5">
       <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="5">
-        <v>42716</v>
-      </c>
-      <c r="C24" s="3">
-        <f t="shared" si="2"/>
+      <c r="B24" s="9">
+        <v>42716</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="1"/>
         <v>39213.1673958333</v>
       </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.1689583333</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
+      <c r="D24" s="4">
+        <f>IF(E24="SU",parse_data!D24+TIME(0,0,3),"--")</f>
+        <v>39213.1687037037</v>
+      </c>
+      <c r="E24" t="str">
+        <f>IF(AND(Watch_4_File!E24="SU",filter_data!E24="SU",parse_data!E24="SU"),"SU","FA")</f>
+        <v>SU</v>
       </c>
     </row>
     <row r="25" ht="15.4" spans="1:5">
       <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="5">
-        <v>42716</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" si="2"/>
+      <c r="B25" s="9">
+        <v>42716</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="1"/>
         <v>39213.2090624999</v>
       </c>
-      <c r="D25" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.2106249999</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
+      <c r="D25" s="4">
+        <f>IF(E25="SU",parse_data!D25+TIME(0,0,3),"--")</f>
+        <v>39213.2103703703</v>
+      </c>
+      <c r="E25" t="str">
+        <f>IF(AND(Watch_4_File!E25="SU",filter_data!E25="SU",parse_data!E25="SU"),"SU","FA")</f>
+        <v>SU</v>
       </c>
     </row>
     <row r="26" ht="15.4" spans="1:5">
       <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="5">
-        <v>42716</v>
-      </c>
-      <c r="C26" s="3">
-        <f t="shared" si="2"/>
+      <c r="B26" s="9">
+        <v>42716</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="1"/>
         <v>39213.2507291666</v>
       </c>
-      <c r="D26" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.2522916666</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
+      <c r="D26" s="4" t="str">
+        <f>IF(E26="SU",parse_data!D26+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="E26" t="str">
+        <f>IF(AND(Watch_4_File!E26="SU",filter_data!E26="SU",parse_data!E26="SU"),"SU","FA")</f>
+        <v>FA</v>
       </c>
     </row>
     <row r="27" ht="15.4" spans="1:5">
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="5">
-        <v>42716</v>
-      </c>
-      <c r="C27" s="3">
-        <f t="shared" si="2"/>
+      <c r="B27" s="9">
+        <v>42716</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="1"/>
         <v>39213.2923958333</v>
       </c>
-      <c r="D27" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.2939583333</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
+      <c r="D27" s="4">
+        <f>IF(E27="SU",parse_data!D27+TIME(0,0,3),"--")</f>
+        <v>39213.2937037037</v>
+      </c>
+      <c r="E27" t="str">
+        <f>IF(AND(Watch_4_File!E27="SU",filter_data!E27="SU",parse_data!E27="SU"),"SU","FA")</f>
+        <v>SU</v>
       </c>
     </row>
     <row r="28" ht="15.4" spans="1:5">
       <c r="A28" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="5">
-        <v>42716</v>
-      </c>
-      <c r="C28" s="3">
-        <f t="shared" si="2"/>
+      <c r="B28" s="9">
+        <v>42716</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="1"/>
         <v>39213.3340624999</v>
       </c>
-      <c r="D28" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.3356249999</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
+      <c r="D28" s="4">
+        <f>IF(E28="SU",parse_data!D28+TIME(0,0,3),"--")</f>
+        <v>39213.3353703703</v>
+      </c>
+      <c r="E28" t="str">
+        <f>IF(AND(Watch_4_File!E28="SU",filter_data!E28="SU",parse_data!E28="SU"),"SU","FA")</f>
+        <v>SU</v>
       </c>
     </row>
     <row r="29" ht="15.4" spans="1:5">
       <c r="A29" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="5">
-        <v>42716</v>
-      </c>
-      <c r="C29" s="3">
-        <f t="shared" si="2"/>
+      <c r="B29" s="9">
+        <v>42716</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="1"/>
         <v>39213.3757291666</v>
       </c>
-      <c r="D29" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.3772916666</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
+      <c r="D29" s="4">
+        <f>IF(E29="SU",parse_data!D29+TIME(0,0,3),"--")</f>
+        <v>39213.377037037</v>
+      </c>
+      <c r="E29" t="str">
+        <f>IF(AND(Watch_4_File!E29="SU",filter_data!E29="SU",parse_data!E29="SU"),"SU","FA")</f>
+        <v>SU</v>
       </c>
     </row>
     <row r="30" ht="15.4" spans="1:5">
       <c r="A30" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="5">
-        <v>42716</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" si="2"/>
+      <c r="B30" s="9">
+        <v>42716</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="1"/>
         <v>39213.4173958333</v>
       </c>
-      <c r="D30" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.4189583333</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
+      <c r="D30" s="4">
+        <f>IF(E30="SU",parse_data!D30+TIME(0,0,3),"--")</f>
+        <v>39213.4187037036</v>
+      </c>
+      <c r="E30" t="str">
+        <f>IF(AND(Watch_4_File!E30="SU",filter_data!E30="SU",parse_data!E30="SU"),"SU","FA")</f>
+        <v>SU</v>
       </c>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1655,7 +1712,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.80116959064327" defaultRowHeight="12.85" outlineLevelCol="6"/>
@@ -1693,621 +1750,596 @@
     </row>
     <row r="2" ht="15.4" spans="1:7">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7">
         <f>Nightly_Download!B2</f>
         <v>42715</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <f>Nightly_Download!C2+TIME(0,0,10)</f>
         <v>39212.2508449074</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <f>C2+TIME(0,0,10)</f>
         <v>39212.2509606481</v>
       </c>
-      <c r="E2" t="str">
-        <f>IF(Nightly_Download!E2="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" ht="15.4" spans="1:5">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7">
         <f>Nightly_Download!B3</f>
         <v>42715</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <f>Nightly_Download!C3+TIME(0,0,10)</f>
         <v>39212.2925115741</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <f t="shared" ref="D3:D30" si="0">C3+TIME(0,0,10)</f>
         <v>39212.2926273148</v>
       </c>
-      <c r="E3" t="str">
-        <f>IF(Nightly_Download!E3="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="15.4" spans="1:5">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7">
         <f>Nightly_Download!B4</f>
         <v>42715</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <f>Nightly_Download!C4+TIME(0,0,10)</f>
         <v>39212.3341782407</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
         <v>39212.3342939815</v>
       </c>
-      <c r="E4" t="str">
-        <f>IF(Nightly_Download!E4="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="15.4" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
         <f>Nightly_Download!B5</f>
         <v>42715</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <f>Nightly_Download!C5+TIME(0,0,10)</f>
         <v>39212.3758449074</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <f>C5+TIME(0,0,30)</f>
         <v>39212.3761921296</v>
       </c>
-      <c r="E5" t="str">
-        <f>IF(Nightly_Download!E5="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="15.4" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
         <f>Nightly_Download!B6</f>
         <v>42715</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <f>Nightly_Download!C6+TIME(0,0,10)</f>
         <v>39212.4175115741</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>39212.4176273148</v>
       </c>
-      <c r="E6" t="str">
-        <f>IF(Nightly_Download!E6="SU","SU","FA")</f>
-        <v>FA</v>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="15.4" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7">
         <f>Nightly_Download!B7</f>
         <v>42715</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <f>Nightly_Download!C7+TIME(0,0,10)</f>
         <v>39212.4591782407</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>39212.4592939815</v>
       </c>
-      <c r="E7" t="str">
-        <f>IF(Nightly_Download!E7="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="15.4" spans="1:5">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
         <f>Nightly_Download!B8</f>
         <v>42715</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <f>Nightly_Download!C8+TIME(0,0,10)</f>
         <v>39212.5008449074</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <f>C8+TIME(0,0,25)</f>
         <v>39212.5011342592</v>
       </c>
-      <c r="E8" t="str">
-        <f>IF(Nightly_Download!E8="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="15.4" spans="1:5">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
         <f>Nightly_Download!B9</f>
         <v>42715</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <f>Nightly_Download!C9+TIME(0,0,10)</f>
         <v>39212.5425115741</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>39212.5426273148</v>
       </c>
-      <c r="E9" t="str">
-        <f>IF(Nightly_Download!E9="SU","SU","FA")</f>
-        <v>FA</v>
+      <c r="E9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="15.4" spans="1:5">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7">
         <f>Nightly_Download!B10</f>
         <v>42715</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <f>Nightly_Download!C10+TIME(0,0,10)</f>
         <v>39212.5841782407</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>39212.5842939815</v>
       </c>
-      <c r="E10" t="str">
-        <f>IF(Nightly_Download!E10="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="15.4" spans="1:5">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
         <f>Nightly_Download!B11</f>
         <v>42715</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <f>Nightly_Download!C11+TIME(0,0,10)</f>
         <v>39212.6258449074</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <f>C11+TIME(0,0,50)</f>
         <v>39212.6264236111</v>
       </c>
-      <c r="E11" t="str">
-        <f>IF(Nightly_Download!E11="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="15.4" spans="1:5">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7">
         <f>Nightly_Download!B12</f>
         <v>42715</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <f>Nightly_Download!C12+TIME(0,0,10)</f>
         <v>39212.6675115741</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <f>C12+TIME(0,0,20)</f>
         <v>39212.6677430555</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" ht="15.4" spans="1:5">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
         <f>Nightly_Download!B13</f>
         <v>42715</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <f>Nightly_Download!C13+TIME(0,0,10)</f>
         <v>39212.7091782407</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <f>C13+TIME(0,0,25)</f>
         <v>39212.7094675926</v>
       </c>
-      <c r="E13" t="str">
-        <f>IF(Nightly_Download!E13="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="15.4" spans="1:5">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7">
         <f>Nightly_Download!B14</f>
         <v>42715</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <f>Nightly_Download!C14+TIME(0,0,10)</f>
         <v>39212.7508449074</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>39212.7509606481</v>
       </c>
-      <c r="E14" t="str">
-        <f>IF(Nightly_Download!E14="SU","SU","FA")</f>
-        <v>FA</v>
+      <c r="E14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="15.4" spans="1:5">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7">
         <f>Nightly_Download!B15</f>
         <v>42715</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <f>Nightly_Download!C15+TIME(0,0,10)</f>
         <v>39212.792511574</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>39212.7926273148</v>
       </c>
-      <c r="E15" t="str">
-        <f>IF(Nightly_Download!E15="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" ht="15.4" spans="1:5">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7">
         <f>Nightly_Download!B16</f>
         <v>42715</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <f>Nightly_Download!C16+TIME(0,0,10)</f>
         <v>39212.8341782407</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <f t="shared" si="0"/>
         <v>39212.8342939814</v>
       </c>
-      <c r="E16" t="str">
-        <f>IF(Nightly_Download!E16="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" ht="15.4" spans="1:5">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7">
         <f>Nightly_Download!B17</f>
         <v>42715</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <f>Nightly_Download!C17+TIME(0,0,10)</f>
         <v>39212.8758449074</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <f>C17+TIME(0,0,25)</f>
         <v>39212.8761342592</v>
       </c>
-      <c r="E17" t="str">
-        <f>IF(Nightly_Download!E17="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="15.4" spans="1:5">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2">
+        <v>10</v>
+      </c>
+      <c r="B18" s="7">
         <f>Nightly_Download!B18</f>
         <v>42715</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <f>Nightly_Download!C18+TIME(0,0,10)</f>
         <v>39212.917511574</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <f>C18+TIME(0,0,10)</f>
         <v>39212.9176273148</v>
       </c>
-      <c r="E18" t="str">
-        <f>IF(Nightly_Download!E18="SU","SU","FA")</f>
-        <v>FA</v>
+      <c r="E18" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="15.4" spans="1:5">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="B19" s="7">
         <f>Nightly_Download!B19</f>
         <v>42715</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <f>Nightly_Download!C19+TIME(0,0,10)</f>
         <v>39212.9591782407</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <f t="shared" si="0"/>
         <v>39212.9592939814</v>
       </c>
-      <c r="E19" t="str">
-        <f>IF(Nightly_Download!E19="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="15.4" spans="1:5">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2">
+        <v>10</v>
+      </c>
+      <c r="B20" s="7">
         <f>Nightly_Download!B20</f>
         <v>42715</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <f>Nightly_Download!C20+TIME(0,0,10)</f>
         <v>39213.0008449074</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <f>C20+TIME(0,0,40)</f>
         <v>39213.0013078703</v>
       </c>
-      <c r="E20" t="str">
-        <f>IF(Nightly_Download!E20="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="15.4" spans="1:5">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="2">
+        <v>10</v>
+      </c>
+      <c r="B21" s="7">
         <f>Nightly_Download!B21</f>
         <v>42716</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <f>Nightly_Download!C21+TIME(0,0,10)</f>
         <v>39213.042511574</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <f>C21+TIME(0,0,25)</f>
         <v>39213.0428009259</v>
       </c>
-      <c r="E21" t="str">
-        <f>IF(Nightly_Download!E21="SU","SU","FA")</f>
-        <v>FA</v>
+      <c r="E21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="15.4" spans="1:5">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="2">
+        <v>10</v>
+      </c>
+      <c r="B22" s="7">
         <f>Nightly_Download!B22</f>
         <v>42716</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <f>Nightly_Download!C22+TIME(0,0,10)</f>
         <v>39213.0841782407</v>
       </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
+      <c r="D22" s="4">
+        <f>C22+TIME(0,0,10)</f>
         <v>39213.0842939814</v>
       </c>
-      <c r="E22" t="str">
-        <f>IF(Nightly_Download!E22="SU","SU","FA")</f>
-        <v>FA</v>
+      <c r="E22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="15.4" spans="1:5">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
+        <v>10</v>
+      </c>
+      <c r="B23" s="7">
         <f>Nightly_Download!B23</f>
         <v>42716</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <f>Nightly_Download!C23+TIME(0,0,10)</f>
         <v>39213.1258449074</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <f t="shared" si="0"/>
         <v>39213.1259606481</v>
       </c>
-      <c r="E23" t="str">
-        <f>IF(Nightly_Download!E23="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" ht="15.4" spans="1:5">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
+        <v>10</v>
+      </c>
+      <c r="B24" s="7">
         <f>Nightly_Download!B24</f>
         <v>42716</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <f>Nightly_Download!C24+TIME(0,0,10)</f>
         <v>39213.167511574</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <f t="shared" si="0"/>
         <v>39213.1676273148</v>
       </c>
-      <c r="E24" t="str">
-        <f>IF(Nightly_Download!E24="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" ht="15.4" spans="1:5">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
+        <v>10</v>
+      </c>
+      <c r="B25" s="7">
         <f>Nightly_Download!B25</f>
         <v>42716</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <f>Nightly_Download!C25+TIME(0,0,10)</f>
         <v>39213.2091782407</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <f t="shared" si="0"/>
         <v>39213.2092939814</v>
       </c>
-      <c r="E25" t="str">
-        <f>IF(Nightly_Download!E25="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="15.4" spans="1:5">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="2">
+        <v>10</v>
+      </c>
+      <c r="B26" s="7">
         <f>Nightly_Download!B26</f>
         <v>42716</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4">
         <f>Nightly_Download!C26+TIME(0,0,10)</f>
         <v>39213.2508449074</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <f t="shared" si="0"/>
         <v>39213.2509606481</v>
       </c>
-      <c r="E26" t="str">
-        <f>IF(Nightly_Download!E26="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" ht="15.4" spans="1:5">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="2">
+        <v>10</v>
+      </c>
+      <c r="B27" s="7">
         <f>Nightly_Download!B27</f>
         <v>42716</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <f>Nightly_Download!C27+TIME(0,0,10)</f>
         <v>39213.292511574</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <f t="shared" si="0"/>
         <v>39213.2926273148</v>
       </c>
-      <c r="E27" t="str">
-        <f>IF(Nightly_Download!E27="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" ht="15.4" spans="1:5">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="2">
+        <v>10</v>
+      </c>
+      <c r="B28" s="7">
         <f>Nightly_Download!B28</f>
         <v>42716</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <f>Nightly_Download!C28+TIME(0,0,10)</f>
         <v>39213.3341782407</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <f t="shared" si="0"/>
         <v>39213.3342939814</v>
       </c>
-      <c r="E28" t="str">
-        <f>IF(Nightly_Download!E28="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" ht="15.4" spans="1:5">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="2">
+        <v>10</v>
+      </c>
+      <c r="B29" s="7">
         <f>Nightly_Download!B29</f>
         <v>42716</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <f>Nightly_Download!C29+TIME(0,0,10)</f>
         <v>39213.3758449073</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4">
         <f t="shared" si="0"/>
         <v>39213.3759606481</v>
       </c>
-      <c r="E29" t="str">
-        <f>IF(Nightly_Download!E29="SU","SU","FA")</f>
-        <v>SU</v>
+      <c r="E29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" ht="15.4" spans="1:5">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="2">
+        <v>10</v>
+      </c>
+      <c r="B30" s="7">
         <f>Nightly_Download!B30</f>
         <v>42716</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <f>Nightly_Download!C30+TIME(0,0,10)</f>
         <v>39213.417511574</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="4">
         <f t="shared" si="0"/>
         <v>39213.4176273147</v>
       </c>
-      <c r="E30" t="str">
-        <f>IF(Nightly_Download!E30="SU","SU","FA")</f>
-        <v>SU</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2322,7 +2354,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.80116959064327" defaultRowHeight="12.85" outlineLevelCol="6"/>
@@ -2362,43 +2394,43 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="7">
         <f>Watch_4_File!B2</f>
         <v>42715</v>
       </c>
-      <c r="C2" s="3">
-        <f>Watch_4_File!D2+TIME(0,0,15)</f>
-        <v>39212.2511342593</v>
-      </c>
-      <c r="D2" s="3">
-        <f>C2+TIME(0,0,30)</f>
-        <v>39212.2514814815</v>
+      <c r="C2" s="4">
+        <f>IF(Watch_4_File!E2="SU",Watch_4_File!D2+TIME(0,0,15),"--")</f>
+        <v>39212.2511342592</v>
+      </c>
+      <c r="D2" s="4">
+        <f>IF(NOT(C2="--"),C2+TIME(0,0,30),"--")</f>
+        <v>39212.2514814814</v>
       </c>
       <c r="E2" t="str">
         <f>IF(Watch_4_File!E2="SU","SU","FA")</f>
         <v>SU</v>
       </c>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" ht="15.4" spans="1:5">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="7">
         <f>Watch_4_File!B3</f>
         <v>42715</v>
       </c>
-      <c r="C3" s="3">
-        <f>Watch_4_File!D3+TIME(0,0,15)</f>
+      <c r="C3" s="4">
+        <f>IF(Watch_4_File!E3="SU",Watch_4_File!D3+TIME(0,0,15),"--")</f>
         <v>39212.2928009259</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D30" si="0">C3+TIME(0,0,30)</f>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D30" si="0">IF(NOT(C3="--"),C3+TIME(0,0,30),"--")</f>
         <v>39212.2931481481</v>
       </c>
       <c r="E3" t="str">
@@ -2410,15 +2442,15 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <f>Watch_4_File!B4</f>
         <v>42715</v>
       </c>
-      <c r="C4" s="3">
-        <f>Watch_4_File!D4+TIME(0,0,15)</f>
+      <c r="C4" s="4">
+        <f>IF(Watch_4_File!E4="SU",Watch_4_File!D4+TIME(0,0,15),"--")</f>
         <v>39212.3344675926</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
         <v>39212.3348148148</v>
       </c>
@@ -2431,17 +2463,17 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="7">
         <f>Watch_4_File!B5</f>
         <v>42715</v>
       </c>
-      <c r="C5" s="3">
-        <f>Watch_4_File!D5+TIME(0,0,15)</f>
+      <c r="C5" s="4">
+        <f>IF(Watch_4_File!E5="SU",Watch_4_File!D5+TIME(0,0,15),"--")</f>
         <v>39212.3763657407</v>
       </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.376712963</v>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.3767129629</v>
       </c>
       <c r="E5" t="str">
         <f>IF(Watch_4_File!E5="SU","SU","FA")</f>
@@ -2452,17 +2484,17 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="7">
         <f>Watch_4_File!B6</f>
         <v>42715</v>
       </c>
-      <c r="C6" s="3">
-        <f>Watch_4_File!D6+TIME(0,0,15)</f>
-        <v>39212.4178009259</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.4181481481</v>
+      <c r="C6" s="4" t="str">
+        <f>IF(Watch_4_File!E6="SU",Watch_4_File!D6+TIME(0,0,15),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
       </c>
       <c r="E6" t="str">
         <f>IF(Watch_4_File!E6="SU","SU","FA")</f>
@@ -2473,15 +2505,15 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="7">
         <f>Watch_4_File!B7</f>
         <v>42715</v>
       </c>
-      <c r="C7" s="3">
-        <f>Watch_4_File!D7+TIME(0,0,15)</f>
+      <c r="C7" s="4">
+        <f>IF(Watch_4_File!E7="SU",Watch_4_File!D7+TIME(0,0,15),"--")</f>
         <v>39212.4594675926</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>39212.4598148148</v>
       </c>
@@ -2494,17 +2526,17 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="7">
         <f>Watch_4_File!B8</f>
         <v>42715</v>
       </c>
-      <c r="C8" s="3">
-        <f>Watch_4_File!D8+TIME(0,0,15)</f>
-        <v>39212.5013078704</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.5016550926</v>
+      <c r="C8" s="4">
+        <f>IF(Watch_4_File!E8="SU",Watch_4_File!D8+TIME(0,0,15),"--")</f>
+        <v>39212.5013078703</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.5016550925</v>
       </c>
       <c r="E8" t="str">
         <f>IF(Watch_4_File!E8="SU","SU","FA")</f>
@@ -2515,17 +2547,17 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="7">
         <f>Watch_4_File!B9</f>
         <v>42715</v>
       </c>
-      <c r="C9" s="3">
-        <f>Watch_4_File!D9+TIME(0,0,15)</f>
-        <v>39212.5428009259</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.5431481481</v>
+      <c r="C9" s="4" t="str">
+        <f>IF(Watch_4_File!E9="SU",Watch_4_File!D9+TIME(0,0,15),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
       </c>
       <c r="E9" t="str">
         <f>IF(Watch_4_File!E9="SU","SU","FA")</f>
@@ -2536,15 +2568,15 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="7">
         <f>Watch_4_File!B10</f>
         <v>42715</v>
       </c>
-      <c r="C10" s="3">
-        <f>Watch_4_File!D10+TIME(0,0,15)</f>
+      <c r="C10" s="4">
+        <f>IF(Watch_4_File!E10="SU",Watch_4_File!D10+TIME(0,0,15),"--")</f>
         <v>39212.5844675926</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>39212.5848148148</v>
       </c>
@@ -2557,15 +2589,15 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="7">
         <f>Watch_4_File!B11</f>
         <v>42715</v>
       </c>
-      <c r="C11" s="3">
-        <f>Watch_4_File!D11+TIME(0,0,15)</f>
+      <c r="C11" s="4">
+        <f>IF(Watch_4_File!E11="SU",Watch_4_File!D11+TIME(0,0,15),"--")</f>
         <v>39212.6265972222</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>39212.6269444444</v>
       </c>
@@ -2578,17 +2610,17 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="7">
         <f>Watch_4_File!B12</f>
         <v>42715</v>
       </c>
-      <c r="C12" s="3">
-        <f>Watch_4_File!D12+TIME(0,0,15)</f>
-        <v>39212.6679166666</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.6682638889</v>
+      <c r="C12" s="4" t="str">
+        <f>IF(Watch_4_File!E12="SU",Watch_4_File!D12+TIME(0,0,15),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
       </c>
       <c r="E12" t="str">
         <f>IF(Watch_4_File!E12="SU","SU","FA")</f>
@@ -2599,17 +2631,17 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="7">
         <f>Watch_4_File!B13</f>
         <v>42715</v>
       </c>
-      <c r="C13" s="3">
-        <f>Watch_4_File!D13+TIME(0,0,15)</f>
+      <c r="C13" s="4">
+        <f>IF(Watch_4_File!E13="SU",Watch_4_File!D13+TIME(0,0,15),"--")</f>
         <v>39212.7096412037</v>
       </c>
-      <c r="D13" s="3">
-        <f>C13+TIME(0,0,50)</f>
-        <v>39212.7102199074</v>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.7099884259</v>
       </c>
       <c r="E13" t="str">
         <f>IF(Watch_4_File!E13="SU","SU","FA")</f>
@@ -2620,17 +2652,17 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="7">
         <f>Watch_4_File!B14</f>
         <v>42715</v>
       </c>
-      <c r="C14" s="3">
-        <f>Watch_4_File!D14+TIME(0,0,15)</f>
-        <v>39212.7511342592</v>
-      </c>
-      <c r="D14" s="3">
-        <f>C14+TIME(0,0,40)</f>
-        <v>39212.7515972222</v>
+      <c r="C14" s="4" t="str">
+        <f>IF(Watch_4_File!E14="SU",Watch_4_File!D14+TIME(0,0,15),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
       </c>
       <c r="E14" t="str">
         <f>IF(Watch_4_File!E14="SU","SU","FA")</f>
@@ -2641,57 +2673,57 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="7">
         <f>Watch_4_File!B15</f>
         <v>42715</v>
       </c>
-      <c r="C15" s="3">
-        <f>Watch_4_File!D15+TIME(0,0,15)</f>
+      <c r="C15" s="4">
+        <f>IF(Watch_4_File!E15="SU",Watch_4_File!D15+TIME(0,0,15),"--")</f>
         <v>39212.7928009259</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>39212.7931481481</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="15.4" spans="1:5">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="7">
         <f>Watch_4_File!B16</f>
         <v>42715</v>
       </c>
-      <c r="C16" s="3">
-        <f>Watch_4_File!D16+TIME(0,0,15)</f>
-        <v>39212.8344675926</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.8348148148</v>
+      <c r="C16" s="4">
+        <f>IF(Watch_4_File!E16="SU",Watch_4_File!D16+TIME(0,0,15),"--")</f>
+        <v>39212.8344675925</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.8348148147</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" ht="15.4" spans="1:5">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="7">
         <f>Watch_4_File!B17</f>
         <v>42715</v>
       </c>
-      <c r="C17" s="3">
-        <f>Watch_4_File!D17+TIME(0,0,15)</f>
+      <c r="C17" s="4">
+        <f>IF(Watch_4_File!E17="SU",Watch_4_File!D17+TIME(0,0,15),"--")</f>
         <v>39212.8763078703</v>
       </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.8766550926</v>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.8766550925</v>
       </c>
       <c r="E17" t="str">
         <f>IF(Watch_4_File!E17="SU","SU","FA")</f>
@@ -2702,17 +2734,17 @@
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="7">
         <f>Watch_4_File!B18</f>
         <v>42715</v>
       </c>
-      <c r="C18" s="3">
-        <f>Watch_4_File!D18+TIME(0,0,15)</f>
-        <v>39212.9178009259</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.9181481481</v>
+      <c r="C18" s="4" t="str">
+        <f>IF(Watch_4_File!E18="SU",Watch_4_File!D18+TIME(0,0,15),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
       </c>
       <c r="E18" t="str">
         <f>IF(Watch_4_File!E18="SU","SU","FA")</f>
@@ -2723,17 +2755,17 @@
       <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="7">
         <f>Watch_4_File!B19</f>
         <v>42715</v>
       </c>
-      <c r="C19" s="3">
-        <f>Watch_4_File!D19+TIME(0,0,15)</f>
+      <c r="C19" s="4">
+        <f>IF(Watch_4_File!E19="SU",Watch_4_File!D19+TIME(0,0,15),"--")</f>
         <v>39212.9594675925</v>
       </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.9598148148</v>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.9598148147</v>
       </c>
       <c r="E19" t="str">
         <f>IF(Watch_4_File!E19="SU","SU","FA")</f>
@@ -2744,17 +2776,17 @@
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="7">
         <f>Watch_4_File!B20</f>
         <v>42715</v>
       </c>
-      <c r="C20" s="3">
-        <f>Watch_4_File!D20+TIME(0,0,15)</f>
+      <c r="C20" s="4">
+        <f>IF(Watch_4_File!E20="SU",Watch_4_File!D20+TIME(0,0,15),"--")</f>
         <v>39213.0014814814</v>
       </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.0018287037</v>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.0018287036</v>
       </c>
       <c r="E20" t="str">
         <f>IF(Watch_4_File!E20="SU","SU","FA")</f>
@@ -2765,17 +2797,17 @@
       <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="7">
         <f>Watch_4_File!B21</f>
         <v>42716</v>
       </c>
-      <c r="C21" s="3">
-        <f>Watch_4_File!D21+TIME(0,0,15)</f>
-        <v>39213.042974537</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.0433217592</v>
+      <c r="C21" s="4" t="str">
+        <f>IF(Watch_4_File!E21="SU",Watch_4_File!D21+TIME(0,0,15),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
       </c>
       <c r="E21" t="str">
         <f>IF(Watch_4_File!E21="SU","SU","FA")</f>
@@ -2786,17 +2818,17 @@
       <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="7">
         <f>Watch_4_File!B22</f>
         <v>42716</v>
       </c>
-      <c r="C22" s="3">
-        <f>Watch_4_File!D22+TIME(0,0,15)</f>
-        <v>39213.0844675925</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.0848148148</v>
+      <c r="C22" s="4" t="str">
+        <f>IF(Watch_4_File!E22="SU",Watch_4_File!D22+TIME(0,0,15),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
       </c>
       <c r="E22" t="str">
         <f>IF(Watch_4_File!E22="SU","SU","FA")</f>
@@ -2807,15 +2839,15 @@
       <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="7">
         <f>Watch_4_File!B23</f>
         <v>42716</v>
       </c>
-      <c r="C23" s="3">
-        <f>Watch_4_File!D23+TIME(0,0,15)</f>
+      <c r="C23" s="4">
+        <f>IF(Watch_4_File!E23="SU",Watch_4_File!D23+TIME(0,0,15),"--")</f>
         <v>39213.1261342592</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <f t="shared" si="0"/>
         <v>39213.1264814814</v>
       </c>
@@ -2828,15 +2860,15 @@
       <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="7">
         <f>Watch_4_File!B24</f>
         <v>42716</v>
       </c>
-      <c r="C24" s="3">
-        <f>Watch_4_File!D24+TIME(0,0,15)</f>
+      <c r="C24" s="4">
+        <f>IF(Watch_4_File!E24="SU",Watch_4_File!D24+TIME(0,0,15),"--")</f>
         <v>39213.1678009259</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <f t="shared" si="0"/>
         <v>39213.1681481481</v>
       </c>
@@ -2849,17 +2881,17 @@
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="7">
         <f>Watch_4_File!B25</f>
         <v>42716</v>
       </c>
-      <c r="C25" s="3">
-        <f>Watch_4_File!D25+TIME(0,0,15)</f>
+      <c r="C25" s="4">
+        <f>IF(Watch_4_File!E25="SU",Watch_4_File!D25+TIME(0,0,15),"--")</f>
         <v>39213.2094675925</v>
       </c>
-      <c r="D25" s="3">
-        <f>C25+TIME(0,0,50)</f>
-        <v>39213.2100462962</v>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.2098148147</v>
       </c>
       <c r="E25" t="str">
         <f>IF(Watch_4_File!E25="SU","SU","FA")</f>
@@ -2870,35 +2902,35 @@
       <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="7">
         <f>Watch_4_File!B26</f>
         <v>42716</v>
       </c>
-      <c r="C26" s="3">
-        <f>Watch_4_File!D26+TIME(0,0,15)</f>
+      <c r="C26" s="4">
+        <f>IF(Watch_4_File!E26="SU",Watch_4_File!D26+TIME(0,0,15),"--")</f>
         <v>39213.2511342592</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <f t="shared" si="0"/>
         <v>39213.2514814814</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="15.4" spans="1:5">
       <c r="A27" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="7">
         <f>Watch_4_File!B27</f>
         <v>42716</v>
       </c>
-      <c r="C27" s="3">
-        <f>Watch_4_File!D27+TIME(0,0,15)</f>
+      <c r="C27" s="4">
+        <f>IF(Watch_4_File!E27="SU",Watch_4_File!D27+TIME(0,0,15),"--")</f>
         <v>39213.2928009259</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <f t="shared" si="0"/>
         <v>39213.2931481481</v>
       </c>
@@ -2911,15 +2943,15 @@
       <c r="A28" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="7">
         <f>Watch_4_File!B28</f>
         <v>42716</v>
       </c>
-      <c r="C28" s="3">
-        <f>Watch_4_File!D28+TIME(0,0,15)</f>
+      <c r="C28" s="4">
+        <f>IF(Watch_4_File!E28="SU",Watch_4_File!D28+TIME(0,0,15),"--")</f>
         <v>39213.3344675925</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <f t="shared" si="0"/>
         <v>39213.3348148147</v>
       </c>
@@ -2932,15 +2964,15 @@
       <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="7">
         <f>Watch_4_File!B29</f>
         <v>42716</v>
       </c>
-      <c r="C29" s="3">
-        <f>Watch_4_File!D29+TIME(0,0,15)</f>
+      <c r="C29" s="4">
+        <f>IF(Watch_4_File!E29="SU",Watch_4_File!D29+TIME(0,0,15),"--")</f>
         <v>39213.3761342592</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4">
         <f t="shared" si="0"/>
         <v>39213.3764814814</v>
       </c>
@@ -2953,17 +2985,17 @@
       <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="7">
         <f>Watch_4_File!B30</f>
         <v>42716</v>
       </c>
-      <c r="C30" s="3">
-        <f>Watch_4_File!D30+TIME(0,0,15)</f>
-        <v>39213.4178009259</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.4181481481</v>
+      <c r="C30" s="4">
+        <f>IF(Watch_4_File!E30="SU",Watch_4_File!D30+TIME(0,0,15),"--")</f>
+        <v>39213.4178009258</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.418148148</v>
       </c>
       <c r="E30" t="str">
         <f>IF(Watch_4_File!E30="SU","SU","FA")</f>
@@ -2971,20 +3003,20 @@
       </c>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2999,7 +3031,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.80116959064327" defaultRowHeight="12.85" outlineLevelCol="6"/>
@@ -3039,16 +3071,16 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="7">
         <f>Watch_4_File!B2</f>
         <v>42715</v>
       </c>
-      <c r="C2" s="3">
-        <f>filter_data!D2+TIME(0,0,15)</f>
-        <v>39212.2516550926</v>
-      </c>
-      <c r="D2" s="3">
-        <f>C2+TIME(0,0,30)</f>
+      <c r="C2" s="4">
+        <f>IF(filter_data!E2="SU",filter_data!D2+TIME(0,0,15),"--")</f>
+        <v>39212.2516550925</v>
+      </c>
+      <c r="D2" s="4">
+        <f>IF(NOT(C2="--"),C2+TIME(0,0,30),"--")</f>
         <v>39212.2520023148</v>
       </c>
       <c r="E2" t="str">
@@ -3056,26 +3088,26 @@
         <v>SU</v>
       </c>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" ht="15.4" spans="1:5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="7">
         <f>Watch_4_File!B3</f>
         <v>42715</v>
       </c>
-      <c r="C3" s="3">
-        <f>filter_data!D3+TIME(0,0,15)</f>
+      <c r="C3" s="4">
+        <f>IF(filter_data!E3="SU",filter_data!D3+TIME(0,0,15),"--")</f>
         <v>39212.2933217592</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D30" si="0">C3+TIME(0,0,30)</f>
+      <c r="D3" s="4">
+        <f>IF(NOT(C3="--"),C3+TIME(0,0,30),"--")</f>
         <v>39212.2936689815</v>
       </c>
       <c r="E3" t="str">
@@ -3087,17 +3119,17 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <f>Watch_4_File!B4</f>
         <v>42715</v>
       </c>
-      <c r="C4" s="3">
-        <f>filter_data!D4+TIME(0,0,15)</f>
+      <c r="C4" s="4">
+        <f>IF(filter_data!E4="SU",filter_data!D4+TIME(0,0,15),"--")</f>
         <v>39212.3349884259</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.3353356481</v>
+      <c r="D4" s="4">
+        <f>IF(NOT(C4="--"),C4+TIME(0,0,30),"--")</f>
+        <v>39212.3353356482</v>
       </c>
       <c r="E4" t="str">
         <f>IF(filter_data!E4="SU","SU","FA")</f>
@@ -3108,16 +3140,16 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="7">
         <f>Watch_4_File!B5</f>
         <v>42715</v>
       </c>
-      <c r="C5" s="3">
-        <f>filter_data!D5+TIME(0,0,15)</f>
-        <v>39212.3768865741</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
+      <c r="C5" s="4">
+        <f>IF(filter_data!E5="SU",filter_data!D5+TIME(0,0,15),"--")</f>
+        <v>39212.376886574</v>
+      </c>
+      <c r="D5" s="4">
+        <f>IF(NOT(C5="--"),C5+TIME(0,0,30),"--")</f>
         <v>39212.3772337963</v>
       </c>
       <c r="E5" t="str">
@@ -3129,17 +3161,17 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="7">
         <f>Watch_4_File!B6</f>
         <v>42715</v>
       </c>
-      <c r="C6" s="3">
-        <f>filter_data!D6+TIME(0,0,15)</f>
-        <v>39212.4183217592</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.4186689815</v>
+      <c r="C6" s="4" t="str">
+        <f>IF(filter_data!E6="SU",filter_data!D6+TIME(0,0,15),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f>IF(NOT(C6="--"),C6+TIME(0,0,30),"--")</f>
+        <v>--</v>
       </c>
       <c r="E6" t="str">
         <f>IF(filter_data!E6="SU","SU","FA")</f>
@@ -3150,17 +3182,17 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="7">
         <f>Watch_4_File!B7</f>
         <v>42715</v>
       </c>
-      <c r="C7" s="3">
-        <f>filter_data!D7+TIME(0,0,15)</f>
+      <c r="C7" s="4">
+        <f>IF(filter_data!E7="SU",filter_data!D7+TIME(0,0,15),"--")</f>
         <v>39212.4599884259</v>
       </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.4603356481</v>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:D30" si="0">IF(NOT(C7="--"),C7+TIME(0,0,30),"--")</f>
+        <v>39212.4603356482</v>
       </c>
       <c r="E7" t="str">
         <f>IF(filter_data!E7="SU","SU","FA")</f>
@@ -3171,15 +3203,15 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="7">
         <f>Watch_4_File!B8</f>
         <v>42715</v>
       </c>
-      <c r="C8" s="3">
-        <f>filter_data!D8+TIME(0,0,15)</f>
-        <v>39212.5018287037</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="4">
+        <f>IF(filter_data!E8="SU",filter_data!D8+TIME(0,0,15),"--")</f>
+        <v>39212.5018287036</v>
+      </c>
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>39212.5021759259</v>
       </c>
@@ -3192,17 +3224,17 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="7">
         <f>Watch_4_File!B9</f>
         <v>42715</v>
       </c>
-      <c r="C9" s="3">
-        <f>filter_data!D9+TIME(0,0,15)</f>
-        <v>39212.5433217592</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.5436689815</v>
+      <c r="C9" s="4" t="str">
+        <f>IF(filter_data!E9="SU",filter_data!D9+TIME(0,0,15),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
       </c>
       <c r="E9" t="str">
         <f>IF(filter_data!E9="SU","SU","FA")</f>
@@ -3213,17 +3245,17 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="7">
         <f>Watch_4_File!B10</f>
         <v>42715</v>
       </c>
-      <c r="C10" s="3">
-        <f>filter_data!D10+TIME(0,0,15)</f>
+      <c r="C10" s="4">
+        <f>IF(filter_data!E10="SU",filter_data!D10+TIME(0,0,15),"--")</f>
         <v>39212.5849884259</v>
       </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.5853356481</v>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.5853356482</v>
       </c>
       <c r="E10" t="str">
         <f>IF(filter_data!E10="SU","SU","FA")</f>
@@ -3234,15 +3266,15 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="7">
         <f>Watch_4_File!B11</f>
         <v>42715</v>
       </c>
-      <c r="C11" s="3">
-        <f>filter_data!D11+TIME(0,0,15)</f>
+      <c r="C11" s="4">
+        <f>IF(filter_data!E11="SU",filter_data!D11+TIME(0,0,15),"--")</f>
         <v>39212.6271180555</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>39212.6274652778</v>
       </c>
@@ -3255,17 +3287,17 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="7">
         <f>Watch_4_File!B12</f>
         <v>42715</v>
       </c>
-      <c r="C12" s="3">
-        <f>filter_data!D12+TIME(0,0,15)</f>
-        <v>39212.6684375</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.6687847222</v>
+      <c r="C12" s="4" t="str">
+        <f>IF(filter_data!E12="SU",filter_data!D12+TIME(0,0,15),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
       </c>
       <c r="E12" t="str">
         <f>IF(filter_data!E12="SU","SU","FA")</f>
@@ -3276,17 +3308,17 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="7">
         <f>Watch_4_File!B13</f>
         <v>42715</v>
       </c>
-      <c r="C13" s="3">
-        <f>filter_data!D13+TIME(0,0,15)</f>
-        <v>39212.7103935185</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.7107407407</v>
+      <c r="C13" s="4">
+        <f>IF(filter_data!E13="SU",filter_data!D13+TIME(0,0,15),"--")</f>
+        <v>39212.710162037</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.7105092593</v>
       </c>
       <c r="E13" t="str">
         <f>IF(filter_data!E13="SU","SU","FA")</f>
@@ -3297,17 +3329,17 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="7">
         <f>Watch_4_File!B14</f>
         <v>42715</v>
       </c>
-      <c r="C14" s="3">
-        <f>filter_data!D14+TIME(0,0,15)</f>
-        <v>39212.7517708333</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.7521180555</v>
+      <c r="C14" s="4" t="str">
+        <f>IF(filter_data!E14="SU",filter_data!D14+TIME(0,0,15),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
       </c>
       <c r="E14" t="str">
         <f>IF(filter_data!E14="SU","SU","FA")</f>
@@ -3318,17 +3350,17 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="7">
         <f>Watch_4_File!B15</f>
         <v>42715</v>
       </c>
-      <c r="C15" s="3">
-        <f>filter_data!D15+TIME(0,0,15)</f>
-        <v>39212.7933217592</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.7936689814</v>
+      <c r="C15" s="4" t="str">
+        <f>IF(filter_data!E15="SU",filter_data!D15+TIME(0,0,15),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
       </c>
       <c r="E15" t="str">
         <f>IF(filter_data!E15="SU","SU","FA")</f>
@@ -3339,15 +3371,15 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="7">
         <f>Watch_4_File!B16</f>
         <v>42715</v>
       </c>
-      <c r="C16" s="3">
-        <f>filter_data!D16+TIME(0,0,15)</f>
-        <v>39212.8349884259</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="4">
+        <f>IF(filter_data!E16="SU",filter_data!D16+TIME(0,0,15),"--")</f>
+        <v>39212.8349884258</v>
+      </c>
+      <c r="D16" s="4">
         <f t="shared" si="0"/>
         <v>39212.8353356481</v>
       </c>
@@ -3360,15 +3392,15 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="7">
         <f>Watch_4_File!B17</f>
         <v>42715</v>
       </c>
-      <c r="C17" s="3">
-        <f>filter_data!D17+TIME(0,0,15)</f>
-        <v>39212.8768287037</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="4">
+        <f>IF(filter_data!E17="SU",filter_data!D17+TIME(0,0,15),"--")</f>
+        <v>39212.8768287036</v>
+      </c>
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
         <v>39212.8771759259</v>
       </c>
@@ -3381,17 +3413,17 @@
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="7">
         <f>Watch_4_File!B18</f>
         <v>42715</v>
       </c>
-      <c r="C18" s="3">
-        <f>filter_data!D18+TIME(0,0,15)</f>
-        <v>39212.9183217592</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>39212.9186689814</v>
+      <c r="C18" s="4" t="str">
+        <f>IF(filter_data!E18="SU",filter_data!D18+TIME(0,0,15),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
       </c>
       <c r="E18" t="str">
         <f>IF(filter_data!E18="SU","SU","FA")</f>
@@ -3402,15 +3434,15 @@
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="7">
         <f>Watch_4_File!B19</f>
         <v>42715</v>
       </c>
-      <c r="C19" s="3">
-        <f>filter_data!D19+TIME(0,0,15)</f>
-        <v>39212.9599884259</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="4">
+        <f>IF(filter_data!E19="SU",filter_data!D19+TIME(0,0,15),"--")</f>
+        <v>39212.9599884258</v>
+      </c>
+      <c r="D19" s="4">
         <f t="shared" si="0"/>
         <v>39212.9603356481</v>
       </c>
@@ -3423,15 +3455,15 @@
       <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="7">
         <f>Watch_4_File!B20</f>
         <v>42715</v>
       </c>
-      <c r="C20" s="3">
-        <f>filter_data!D20+TIME(0,0,15)</f>
-        <v>39213.0020023148</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="4">
+        <f>IF(filter_data!E20="SU",filter_data!D20+TIME(0,0,15),"--")</f>
+        <v>39213.0020023147</v>
+      </c>
+      <c r="D20" s="4">
         <f t="shared" si="0"/>
         <v>39213.002349537</v>
       </c>
@@ -3444,17 +3476,17 @@
       <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="7">
         <f>Watch_4_File!B21</f>
         <v>42716</v>
       </c>
-      <c r="C21" s="3">
-        <f>filter_data!D21+TIME(0,0,15)</f>
-        <v>39213.0434953703</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.0438425925</v>
+      <c r="C21" s="4" t="str">
+        <f>IF(filter_data!E21="SU",filter_data!D21+TIME(0,0,15),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
       </c>
       <c r="E21" t="str">
         <f>IF(filter_data!E21="SU","SU","FA")</f>
@@ -3465,17 +3497,17 @@
       <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="7">
         <f>Watch_4_File!B22</f>
         <v>42716</v>
       </c>
-      <c r="C22" s="3">
-        <f>filter_data!D22+TIME(0,0,15)</f>
-        <v>39213.0849884259</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.0853356481</v>
+      <c r="C22" s="4" t="str">
+        <f>IF(filter_data!E22="SU",filter_data!D22+TIME(0,0,15),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
       </c>
       <c r="E22" t="str">
         <f>IF(filter_data!E22="SU","SU","FA")</f>
@@ -3486,15 +3518,15 @@
       <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="7">
         <f>Watch_4_File!B23</f>
         <v>42716</v>
       </c>
-      <c r="C23" s="3">
-        <f>filter_data!D23+TIME(0,0,15)</f>
+      <c r="C23" s="4">
+        <f>IF(filter_data!E23="SU",filter_data!D23+TIME(0,0,15),"--")</f>
         <v>39213.1266550925</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <f t="shared" si="0"/>
         <v>39213.1270023148</v>
       </c>
@@ -3507,17 +3539,17 @@
       <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="7">
         <f>Watch_4_File!B24</f>
         <v>42716</v>
       </c>
-      <c r="C24" s="3">
-        <f>filter_data!D24+TIME(0,0,15)</f>
+      <c r="C24" s="4">
+        <f>IF(filter_data!E24="SU",filter_data!D24+TIME(0,0,15),"--")</f>
         <v>39213.1683217592</v>
       </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.1686689814</v>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.1686689815</v>
       </c>
       <c r="E24" t="str">
         <f>IF(filter_data!E24="SU","SU","FA")</f>
@@ -3528,17 +3560,17 @@
       <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="7">
         <f>Watch_4_File!B25</f>
         <v>42716</v>
       </c>
-      <c r="C25" s="3">
-        <f>filter_data!D25+TIME(0,0,15)</f>
-        <v>39213.2102199073</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.2105671296</v>
+      <c r="C25" s="4">
+        <f>IF(filter_data!E25="SU",filter_data!D25+TIME(0,0,15),"--")</f>
+        <v>39213.2099884258</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.2103356481</v>
       </c>
       <c r="E25" t="str">
         <f>IF(filter_data!E25="SU","SU","FA")</f>
@@ -3549,17 +3581,17 @@
       <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="7">
         <f>Watch_4_File!B26</f>
         <v>42716</v>
       </c>
-      <c r="C26" s="3">
-        <f>filter_data!D26+TIME(0,0,15)</f>
-        <v>39213.2516550925</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.2520023148</v>
+      <c r="C26" s="4" t="str">
+        <f>IF(filter_data!E26="SU",filter_data!D26+TIME(0,0,15),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
       </c>
       <c r="E26" t="str">
         <f>IF(filter_data!E26="SU","SU","FA")</f>
@@ -3570,17 +3602,17 @@
       <c r="A27" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="7">
         <f>Watch_4_File!B27</f>
         <v>42716</v>
       </c>
-      <c r="C27" s="3">
-        <f>filter_data!D27+TIME(0,0,15)</f>
+      <c r="C27" s="4">
+        <f>IF(filter_data!E27="SU",filter_data!D27+TIME(0,0,15),"--")</f>
         <v>39213.2933217592</v>
       </c>
-      <c r="D27" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.2936689814</v>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.2936689815</v>
       </c>
       <c r="E27" t="str">
         <f>IF(filter_data!E27="SU","SU","FA")</f>
@@ -3591,15 +3623,15 @@
       <c r="A28" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="7">
         <f>Watch_4_File!B28</f>
         <v>42716</v>
       </c>
-      <c r="C28" s="3">
-        <f>filter_data!D28+TIME(0,0,15)</f>
-        <v>39213.3349884259</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="4">
+        <f>IF(filter_data!E28="SU",filter_data!D28+TIME(0,0,15),"--")</f>
+        <v>39213.3349884258</v>
+      </c>
+      <c r="D28" s="4">
         <f t="shared" si="0"/>
         <v>39213.3353356481</v>
       </c>
@@ -3612,17 +3644,17 @@
       <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="7">
         <f>Watch_4_File!B29</f>
         <v>42716</v>
       </c>
-      <c r="C29" s="3">
-        <f>filter_data!D29+TIME(0,0,15)</f>
+      <c r="C29" s="4">
+        <f>IF(filter_data!E29="SU",filter_data!D29+TIME(0,0,15),"--")</f>
         <v>39213.3766550925</v>
       </c>
-      <c r="D29" s="3">
-        <f t="shared" si="0"/>
-        <v>39213.3770023147</v>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.3770023148</v>
       </c>
       <c r="E29" t="str">
         <f>IF(filter_data!E29="SU","SU","FA")</f>
@@ -3633,15 +3665,15 @@
       <c r="A30" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="7">
         <f>Watch_4_File!B30</f>
         <v>42716</v>
       </c>
-      <c r="C30" s="3">
-        <f>filter_data!D30+TIME(0,0,15)</f>
-        <v>39213.4183217592</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="C30" s="4">
+        <f>IF(filter_data!E30="SU",filter_data!D30+TIME(0,0,15),"--")</f>
+        <v>39213.4183217591</v>
+      </c>
+      <c r="D30" s="4">
         <f t="shared" si="0"/>
         <v>39213.4186689814</v>
       </c>
@@ -3651,12 +3683,1313 @@
       </c>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.4327485380117" defaultRowHeight="12.85" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="15.327485380117" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.3040935672515" style="2" customWidth="1"/>
+    <col min="3" max="4" width="6.6140350877193" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.71345029239766" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.82456140350877" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.42105263157895" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="15.4327485380117" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="15.4" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C2" s="4">
+        <f>IF(Nightly_Download!E2="SU",parse_data!D2+TIME(0,0,3),"--")</f>
+        <v>39212.252037037</v>
+      </c>
+      <c r="D2" s="4">
+        <f>upload!D2</f>
+        <v>39212.2523611111</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>upload!E2</f>
+        <v>SU</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C3" s="4">
+        <f>IF(Nightly_Download!E3="SU",parse_data!D3+TIME(0,0,3),"--")</f>
+        <v>39212.2937037037</v>
+      </c>
+      <c r="D3" s="4">
+        <f>upload!D3</f>
+        <v>39212.2940277778</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>upload!E3</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C4" s="4">
+        <f>IF(Nightly_Download!E4="SU",parse_data!D4+TIME(0,0,3),"--")</f>
+        <v>39212.3353703704</v>
+      </c>
+      <c r="D4" s="4">
+        <f>upload!D4</f>
+        <v>39212.3356944445</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>upload!E4</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C5" s="4">
+        <f>IF(Nightly_Download!E5="SU",parse_data!D5+TIME(0,0,3),"--")</f>
+        <v>39212.3772685185</v>
+      </c>
+      <c r="D5" s="4">
+        <f>upload!D5</f>
+        <v>39212.3775925926</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f>upload!E5</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>IF(Nightly_Download!E6="SU",parse_data!D6+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f>upload!D6</f>
+        <v>--</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f>upload!E6</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C7" s="4">
+        <f>IF(Nightly_Download!E7="SU",parse_data!D7+TIME(0,0,3),"--")</f>
+        <v>39212.4603703704</v>
+      </c>
+      <c r="D7" s="4">
+        <f>upload!D7</f>
+        <v>39212.4606944445</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>upload!E7</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C8" s="4">
+        <f>IF(Nightly_Download!E8="SU",parse_data!D8+TIME(0,0,3),"--")</f>
+        <v>39212.5022106481</v>
+      </c>
+      <c r="D8" s="4">
+        <f>upload!D8</f>
+        <v>39212.5025347222</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>upload!E8</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>IF(Nightly_Download!E9="SU",parse_data!D9+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f>upload!D9</f>
+        <v>--</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>upload!E9</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C10" s="4">
+        <f>IF(Nightly_Download!E10="SU",parse_data!D10+TIME(0,0,3),"--")</f>
+        <v>39212.5853703704</v>
+      </c>
+      <c r="D10" s="4">
+        <f>upload!D10</f>
+        <v>39212.5856944445</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>upload!E10</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C11" s="4">
+        <f>IF(Nightly_Download!E11="SU",parse_data!D11+TIME(0,0,3),"--")</f>
+        <v>39212.6275</v>
+      </c>
+      <c r="D11" s="4">
+        <f>upload!D11</f>
+        <v>39212.6278240741</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>upload!E11</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>IF(Nightly_Download!E12="SU",parse_data!D12+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f>upload!D12</f>
+        <v>--</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f>upload!E12</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C13" s="4">
+        <f>IF(Nightly_Download!E13="SU",parse_data!D13+TIME(0,0,3),"--")</f>
+        <v>39212.7105439815</v>
+      </c>
+      <c r="D13" s="4">
+        <f>upload!D13</f>
+        <v>39212.7108680556</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f>upload!E13</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>IF(Nightly_Download!E14="SU",parse_data!D14+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f>upload!D14</f>
+        <v>--</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f>upload!E14</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>IF(Nightly_Download!E15="SU",parse_data!D15+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f>upload!D15</f>
+        <v>--</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f>upload!E15</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C16" s="4">
+        <f>IF(Nightly_Download!E16="SU",parse_data!D16+TIME(0,0,3),"--")</f>
+        <v>39212.8353703703</v>
+      </c>
+      <c r="D16" s="4">
+        <f>upload!D16</f>
+        <v>39212.8356944444</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f>upload!E16</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C17" s="4">
+        <f>IF(Nightly_Download!E17="SU",parse_data!D17+TIME(0,0,3),"--")</f>
+        <v>39212.8772106481</v>
+      </c>
+      <c r="D17" s="4">
+        <f>upload!D17</f>
+        <v>39212.8775347222</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f>upload!E17</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f>IF(Nightly_Download!E18="SU",parse_data!D18+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f>upload!D18</f>
+        <v>--</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f>upload!E18</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C19" s="4">
+        <f>IF(Nightly_Download!E19="SU",parse_data!D19+TIME(0,0,3),"--")</f>
+        <v>39212.9603703703</v>
+      </c>
+      <c r="D19" s="4">
+        <f>upload!D19</f>
+        <v>39212.9606944444</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f>upload!E19</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C20" s="4">
+        <f>IF(Nightly_Download!E20="SU",parse_data!D20+TIME(0,0,3),"--")</f>
+        <v>39213.0023842592</v>
+      </c>
+      <c r="D20" s="4">
+        <f>upload!D20</f>
+        <v>39213.0027083333</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f>upload!E20</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>IF(Nightly_Download!E21="SU",parse_data!D21+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f>upload!D21</f>
+        <v>--</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f>upload!E21</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>IF(Nightly_Download!E22="SU",parse_data!D22+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f>upload!D22</f>
+        <v>--</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f>upload!E22</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C23" s="4">
+        <f>IF(Nightly_Download!E23="SU",parse_data!D23+TIME(0,0,3),"--")</f>
+        <v>39213.127037037</v>
+      </c>
+      <c r="D23" s="4">
+        <f>upload!D23</f>
+        <v>39213.1273611111</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f>upload!E23</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C24" s="4">
+        <f>IF(Nightly_Download!E24="SU",parse_data!D24+TIME(0,0,3),"--")</f>
+        <v>39213.1687037037</v>
+      </c>
+      <c r="D24" s="4">
+        <f>upload!D24</f>
+        <v>39213.1690277778</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f>upload!E24</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C25" s="4">
+        <f>IF(Nightly_Download!E25="SU",parse_data!D25+TIME(0,0,3),"--")</f>
+        <v>39213.2103703703</v>
+      </c>
+      <c r="D25" s="4">
+        <f>upload!D25</f>
+        <v>39213.2106944444</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f>upload!E25</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f>IF(Nightly_Download!E26="SU",parse_data!D26+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f>upload!D26</f>
+        <v>--</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f>upload!E26</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C27" s="4">
+        <f>IF(Nightly_Download!E27="SU",parse_data!D27+TIME(0,0,3),"--")</f>
+        <v>39213.2937037037</v>
+      </c>
+      <c r="D27" s="4">
+        <f>upload!D27</f>
+        <v>39213.2940277778</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f>upload!E27</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C28" s="4">
+        <f>IF(Nightly_Download!E28="SU",parse_data!D28+TIME(0,0,3),"--")</f>
+        <v>39213.3353703703</v>
+      </c>
+      <c r="D28" s="4">
+        <f>upload!D28</f>
+        <v>39213.3356944444</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f>upload!E28</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C29" s="4">
+        <f>IF(Nightly_Download!E29="SU",parse_data!D29+TIME(0,0,3),"--")</f>
+        <v>39213.377037037</v>
+      </c>
+      <c r="D29" s="4">
+        <f>upload!D29</f>
+        <v>39213.3773611111</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f>upload!E29</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C30" s="4">
+        <f>IF(Nightly_Download!E30="SU",parse_data!D30+TIME(0,0,3),"--")</f>
+        <v>39213.4187037036</v>
+      </c>
+      <c r="D30" s="4">
+        <f>upload!D30</f>
+        <v>39213.4190277777</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f>upload!E30</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="3:4">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="3:4">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="3:4">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="3:4">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.4327485380117" defaultRowHeight="12.85" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="15.327485380117" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.3040935672515" style="2" customWidth="1"/>
+    <col min="3" max="4" width="6.6140350877193" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.71345029239766" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.82456140350877" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.42105263157895" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="15.4327485380117" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="15.4" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C2" s="4">
+        <f>IF(NOT(database!C2="--"),database!C2+TIME(0,0,3),"--")</f>
+        <v>39212.2520717592</v>
+      </c>
+      <c r="D2" s="4">
+        <f>IF(NOT(C2="--"),C2+TIME(0,0,25),"--")</f>
+        <v>39212.2523611111</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>IF(Nightly_Download!E2="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C3" s="4">
+        <f>IF(NOT(database!C3="--"),database!C3+TIME(0,0,3),"--")</f>
+        <v>39212.2937384259</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D29" si="0">IF(NOT(C3="--"),C3+TIME(0,0,25),"--")</f>
+        <v>39212.2940277778</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>IF(Nightly_Download!E3="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C4" s="4">
+        <f>IF(NOT(database!C4="--"),database!C4+TIME(0,0,3),"--")</f>
+        <v>39212.3354050926</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.3356944445</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>IF(Nightly_Download!E4="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C5" s="4">
+        <f>IF(NOT(database!C5="--"),database!C5+TIME(0,0,3),"--")</f>
+        <v>39212.3773032407</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.3775925926</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f>IF(Nightly_Download!E5="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>IF(NOT(database!C6="--"),database!C6+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f>IF(Nightly_Download!E6="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C7" s="4">
+        <f>IF(NOT(database!C7="--"),database!C7+TIME(0,0,3),"--")</f>
+        <v>39212.4604050926</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.4606944445</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>IF(Nightly_Download!E7="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C8" s="4">
+        <f>IF(NOT(database!C8="--"),database!C8+TIME(0,0,3),"--")</f>
+        <v>39212.5022453703</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.5025347222</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>IF(Nightly_Download!E8="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>IF(NOT(database!C9="--"),database!C9+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>IF(Nightly_Download!E9="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C10" s="4">
+        <f>IF(NOT(database!C10="--"),database!C10+TIME(0,0,3),"--")</f>
+        <v>39212.5854050926</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.5856944445</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>IF(Nightly_Download!E10="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C11" s="4">
+        <f>IF(NOT(database!C11="--"),database!C11+TIME(0,0,3),"--")</f>
+        <v>39212.6275347222</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.6278240741</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>IF(Nightly_Download!E11="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>IF(NOT(database!C12="--"),database!C12+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f>IF(Nightly_Download!E12="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C13" s="4">
+        <f>IF(NOT(database!C13="--"),database!C13+TIME(0,0,3),"--")</f>
+        <v>39212.7105787037</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.7108680556</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f>IF(Nightly_Download!E13="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>IF(NOT(database!C14="--"),database!C14+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f>IF(Nightly_Download!E14="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>IF(NOT(database!C15="--"),database!C15+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f>IF(Nightly_Download!E15="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C16" s="4">
+        <f>IF(NOT(database!C16="--"),database!C16+TIME(0,0,3),"--")</f>
+        <v>39212.8354050925</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.8356944444</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f>IF(Nightly_Download!E16="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C17" s="4">
+        <f>IF(NOT(database!C17="--"),database!C17+TIME(0,0,3),"--")</f>
+        <v>39212.8772453703</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.8775347222</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f>IF(Nightly_Download!E17="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f>IF(NOT(database!C18="--"),database!C18+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f>IF(Nightly_Download!E18="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C19" s="4">
+        <f>IF(NOT(database!C19="--"),database!C19+TIME(0,0,3),"--")</f>
+        <v>39212.9604050925</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>39212.9606944444</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f>IF(Nightly_Download!E19="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>42715</v>
+      </c>
+      <c r="C20" s="4">
+        <f>IF(NOT(database!C20="--"),database!C20+TIME(0,0,3),"--")</f>
+        <v>39213.0024189814</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.0027083333</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f>IF(Nightly_Download!E20="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>IF(NOT(database!C21="--"),database!C21+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f>IF(Nightly_Download!E21="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>IF(NOT(database!C22="--"),database!C22+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f>IF(Nightly_Download!E22="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C23" s="4">
+        <f>IF(NOT(database!C23="--"),database!C23+TIME(0,0,3),"--")</f>
+        <v>39213.1270717592</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.1273611111</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f>IF(Nightly_Download!E23="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C24" s="4">
+        <f>IF(NOT(database!C24="--"),database!C24+TIME(0,0,3),"--")</f>
+        <v>39213.1687384259</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.1690277778</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f>IF(Nightly_Download!E24="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C25" s="4">
+        <f>IF(NOT(database!C25="--"),database!C25+TIME(0,0,3),"--")</f>
+        <v>39213.2104050925</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.2106944444</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f>IF(Nightly_Download!E25="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f>IF(NOT(database!C26="--"),database!C26+TIME(0,0,3),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f>IF(Nightly_Download!E26="SU","SU","FA")</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C27" s="4">
+        <f>IF(NOT(database!C27="--"),database!C27+TIME(0,0,3),"--")</f>
+        <v>39213.2937384259</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.2940277778</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f>IF(Nightly_Download!E27="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C28" s="4">
+        <f>IF(NOT(database!C28="--"),database!C28+TIME(0,0,3),"--")</f>
+        <v>39213.3354050925</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.3356944444</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f>IF(Nightly_Download!E28="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C29" s="4">
+        <f>IF(NOT(database!C29="--"),database!C29+TIME(0,0,3),"--")</f>
+        <v>39213.3770717592</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>39213.3773611111</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="15.4" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C30" s="4">
+        <f>IF(NOT(database!C30="--"),database!C30+TIME(0,0,3),"--")</f>
+        <v>39213.4187384258</v>
+      </c>
+      <c r="D30" s="4">
+        <f>IF(NOT(C30="--"),C30+TIME(0,0,25),"--")</f>
+        <v>39213.4190277777</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f>IF(Nightly_Download!E30="SU","SU","FA")</f>
+        <v>SU</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="3:4">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="3:4">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="3:4">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="3:4">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>